--- a/datasets/employment/employment_stats_reformat.xlsx
+++ b/datasets/employment/employment_stats_reformat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wye\Documents\UIUC MCS\CS498\Create a narrative visualization\CS498NarrativeVisualization\datasets\employment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68ABC08-E1B3-4A8B-9D40-AC8BD5FBB8F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AFC840-33AF-48A2-AFC5-4BAB3019FD0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="795" windowWidth="24900" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="900" windowWidth="24900" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="J123" authorId="0" shapeId="0" xr:uid="{1A41E3F9-B99A-4CDB-A3F1-C0360A53A309}">
+    <comment ref="B123" authorId="0" shapeId="0" xr:uid="{45096C78-0042-44C9-AAB9-F3B4807E8603}">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="B126" authorId="0" shapeId="0" xr:uid="{8F926AB5-02AA-48D1-A0B0-1BB41AD8CE0C}">
+    <comment ref="K123" authorId="0" shapeId="0" xr:uid="{1A41E3F9-B99A-4CDB-A3F1-C0360A53A309}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  corrected
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B126" authorId="0" shapeId="0" xr:uid="{A3CCED4A-5360-4EE2-8921-2A149C5D36E0}">
       <text>
         <r>
           <rPr>
@@ -60,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C126" authorId="0" shapeId="0" xr:uid="{5D835D78-056A-4595-A5BB-F31EB7EF58E0}">
+    <comment ref="C126" authorId="0" shapeId="0" xr:uid="{8F926AB5-02AA-48D1-A0B0-1BB41AD8CE0C}">
       <text>
         <r>
           <rPr>
@@ -75,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D126" authorId="0" shapeId="0" xr:uid="{AC337422-FF8A-4EF3-96DE-4EF1A9FC9E4C}">
+    <comment ref="D126" authorId="0" shapeId="0" xr:uid="{5D835D78-056A-4595-A5BB-F31EB7EF58E0}">
       <text>
         <r>
           <rPr>
@@ -90,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E126" authorId="0" shapeId="0" xr:uid="{226BE5FF-BD60-45D5-9148-E1420117E065}">
+    <comment ref="E126" authorId="0" shapeId="0" xr:uid="{AC337422-FF8A-4EF3-96DE-4EF1A9FC9E4C}">
       <text>
         <r>
           <rPr>
@@ -105,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F126" authorId="0" shapeId="0" xr:uid="{42D09AC2-6CDB-4306-A310-0B16B86BFEDC}">
+    <comment ref="F126" authorId="0" shapeId="0" xr:uid="{226BE5FF-BD60-45D5-9148-E1420117E065}">
       <text>
         <r>
           <rPr>
@@ -120,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G126" authorId="0" shapeId="0" xr:uid="{A68224E7-26A8-4247-9089-43109AE257A8}">
+    <comment ref="G126" authorId="0" shapeId="0" xr:uid="{42D09AC2-6CDB-4306-A310-0B16B86BFEDC}">
       <text>
         <r>
           <rPr>
@@ -135,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H126" authorId="0" shapeId="0" xr:uid="{9A26D4A5-172A-40EB-AE97-EE14E670C0E0}">
+    <comment ref="H126" authorId="0" shapeId="0" xr:uid="{A68224E7-26A8-4247-9089-43109AE257A8}">
       <text>
         <r>
           <rPr>
@@ -150,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I126" authorId="0" shapeId="0" xr:uid="{B056CBD4-EBFA-4404-883B-12ACFF83DD3F}">
+    <comment ref="I126" authorId="0" shapeId="0" xr:uid="{9A26D4A5-172A-40EB-AE97-EE14E670C0E0}">
       <text>
         <r>
           <rPr>
@@ -165,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J126" authorId="0" shapeId="0" xr:uid="{55FAB1BE-414D-4756-8469-A3AD3B04329C}">
+    <comment ref="J126" authorId="0" shapeId="0" xr:uid="{B056CBD4-EBFA-4404-883B-12ACFF83DD3F}">
       <text>
         <r>
           <rPr>
@@ -180,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K126" authorId="0" shapeId="0" xr:uid="{68FF0705-BDE4-4854-B5C0-EF133732D84D}">
+    <comment ref="K126" authorId="0" shapeId="0" xr:uid="{55FAB1BE-414D-4756-8469-A3AD3B04329C}">
       <text>
         <r>
           <rPr>
@@ -195,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L126" authorId="0" shapeId="0" xr:uid="{966D4B3E-7F2A-4DC4-8AA0-0320DF990B0C}">
+    <comment ref="L126" authorId="0" shapeId="0" xr:uid="{68FF0705-BDE4-4854-B5C0-EF133732D84D}">
       <text>
         <r>
           <rPr>
@@ -210,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B127" authorId="0" shapeId="0" xr:uid="{24ED899E-C9F1-4FE8-8925-5D89B1CBD93A}">
+    <comment ref="M126" authorId="0" shapeId="0" xr:uid="{966D4B3E-7F2A-4DC4-8AA0-0320DF990B0C}">
       <text>
         <r>
           <rPr>
@@ -225,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C127" authorId="0" shapeId="0" xr:uid="{06A7143E-E13B-49CF-AB86-70CF304A1437}">
+    <comment ref="B127" authorId="0" shapeId="0" xr:uid="{6AF9C186-6D70-4E2B-96A6-B2965E47FFCE}">
       <text>
         <r>
           <rPr>
@@ -240,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D127" authorId="0" shapeId="0" xr:uid="{F7B03AED-1019-43B3-8E94-86CEB819D9A9}">
+    <comment ref="C127" authorId="0" shapeId="0" xr:uid="{24ED899E-C9F1-4FE8-8925-5D89B1CBD93A}">
       <text>
         <r>
           <rPr>
@@ -255,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E127" authorId="0" shapeId="0" xr:uid="{1F1D339E-1D85-4744-898E-BC2423DCBDAE}">
+    <comment ref="D127" authorId="0" shapeId="0" xr:uid="{06A7143E-E13B-49CF-AB86-70CF304A1437}">
       <text>
         <r>
           <rPr>
@@ -270,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F127" authorId="0" shapeId="0" xr:uid="{29CB9CE0-1DA1-4FFC-A51A-6444EF5C61A9}">
+    <comment ref="E127" authorId="0" shapeId="0" xr:uid="{F7B03AED-1019-43B3-8E94-86CEB819D9A9}">
       <text>
         <r>
           <rPr>
@@ -285,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G127" authorId="0" shapeId="0" xr:uid="{AA4B55F5-8229-42C6-95A9-571FD39BCA66}">
+    <comment ref="F127" authorId="0" shapeId="0" xr:uid="{1F1D339E-1D85-4744-898E-BC2423DCBDAE}">
       <text>
         <r>
           <rPr>
@@ -300,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H127" authorId="0" shapeId="0" xr:uid="{BCA6F04C-6A6C-4A44-92C3-D238D8EABAB0}">
+    <comment ref="G127" authorId="0" shapeId="0" xr:uid="{29CB9CE0-1DA1-4FFC-A51A-6444EF5C61A9}">
       <text>
         <r>
           <rPr>
@@ -315,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I127" authorId="0" shapeId="0" xr:uid="{9D2CF06C-2470-4CC7-B339-ECD723552403}">
+    <comment ref="H127" authorId="0" shapeId="0" xr:uid="{AA4B55F5-8229-42C6-95A9-571FD39BCA66}">
       <text>
         <r>
           <rPr>
@@ -330,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J127" authorId="0" shapeId="0" xr:uid="{37CD203B-D4D7-4F6A-9F5C-01F7806D035F}">
+    <comment ref="I127" authorId="0" shapeId="0" xr:uid="{BCA6F04C-6A6C-4A44-92C3-D238D8EABAB0}">
       <text>
         <r>
           <rPr>
@@ -345,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K127" authorId="0" shapeId="0" xr:uid="{BA559701-0CD9-43E1-85FC-0EC25E89291A}">
+    <comment ref="J127" authorId="0" shapeId="0" xr:uid="{9D2CF06C-2470-4CC7-B339-ECD723552403}">
       <text>
         <r>
           <rPr>
@@ -360,7 +375,37 @@
         </r>
       </text>
     </comment>
-    <comment ref="L127" authorId="0" shapeId="0" xr:uid="{0F473C2A-5C54-494E-B040-E41D7837EADB}">
+    <comment ref="K127" authorId="0" shapeId="0" xr:uid="{37CD203B-D4D7-4F6A-9F5C-01F7806D035F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L127" authorId="0" shapeId="0" xr:uid="{BA559701-0CD9-43E1-85FC-0EC25E89291A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M127" authorId="0" shapeId="0" xr:uid="{0F473C2A-5C54-494E-B040-E41D7837EADB}">
       <text>
         <r>
           <rPr>
@@ -380,7 +425,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>Jan-2010</t>
   </si>
@@ -794,6 +839,9 @@
   </si>
   <si>
     <t>Average hourly earnings of all employees, total private</t>
+  </si>
+  <si>
+    <t>Total nonfarm</t>
   </si>
 </sst>
 </file>
@@ -801,8 +849,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#0"/>
-    <numFmt numFmtId="170" formatCode="#0.00"/>
+    <numFmt numFmtId="164" formatCode="#0"/>
+    <numFmt numFmtId="165" formatCode="#0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -884,10 +932,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1170,4841 +1218,5222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="5" customWidth="1"/>
-    <col min="2" max="12" width="9.140625" style="3"/>
+    <col min="3" max="13" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
+        <v>129790</v>
+      </c>
+      <c r="C2" s="6">
         <v>5580</v>
       </c>
-      <c r="C2" s="6">
+      <c r="D2" s="6">
         <v>19820</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="6">
         <v>7732</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <v>22491</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="6">
         <v>2737</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <v>12932</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <v>11460</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>667</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="6">
         <v>16572</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="6">
         <v>5323</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>22.41</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6">
+        <v>129698</v>
+      </c>
+      <c r="C3" s="6">
         <v>5500</v>
       </c>
-      <c r="C3" s="6">
+      <c r="D3" s="6">
         <v>19839</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="6">
         <v>7724</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>22476</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="6">
         <v>2737</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <v>12927</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <v>11453</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="6">
         <v>674</v>
       </c>
-      <c r="J3" s="6">
+      <c r="K3" s="6">
         <v>16591</v>
       </c>
-      <c r="K3" s="6">
+      <c r="L3" s="6">
         <v>5316</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>22.45</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6">
+        <v>129879</v>
+      </c>
+      <c r="C4" s="6">
         <v>5537</v>
       </c>
-      <c r="C4" s="6">
+      <c r="D4" s="6">
         <v>19896</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="6">
         <v>7708</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <v>22518</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <v>2718</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="6">
         <v>12943</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>11453</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>682</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <v>16574</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="6">
         <v>5329</v>
       </c>
-      <c r="L4" s="7">
+      <c r="M4" s="7">
         <v>22.45</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6">
+        <v>130110</v>
+      </c>
+      <c r="C5" s="6">
         <v>5553</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D5" s="6">
         <v>19902</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="6">
         <v>7708</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>22569</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <v>2715</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>12979</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>11489</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>687</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <v>16666</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="6">
         <v>5335</v>
       </c>
-      <c r="L5" s="7">
+      <c r="M5" s="7">
         <v>22.49</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="6">
+        <v>130650</v>
+      </c>
+      <c r="C6" s="6">
         <v>5520</v>
       </c>
-      <c r="C6" s="6">
+      <c r="D6" s="6">
         <v>19934</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <v>7699</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <v>22996</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <v>2709</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>13012</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>11525</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>697</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <v>16702</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <v>5330</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="7">
         <v>22.53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6">
+        <v>130511</v>
+      </c>
+      <c r="C7" s="6">
         <v>5516</v>
       </c>
-      <c r="C7" s="6">
+      <c r="D7" s="6">
         <v>19955</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <v>7688</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>22740</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <v>2703</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>13034</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>11545</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>702</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <v>16764</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="6">
         <v>5315</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M7" s="7">
         <v>22.53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="6">
+        <v>130427</v>
+      </c>
+      <c r="C8" s="6">
         <v>5508</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D8" s="6">
         <v>19980</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="6">
         <v>7677</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <v>22569</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <v>2703</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <v>13048</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>11561</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>708</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <v>16773</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="6">
         <v>5326</v>
       </c>
-      <c r="L8" s="7">
+      <c r="M8" s="7">
         <v>22.59</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6">
+        <v>130422</v>
+      </c>
+      <c r="C9" s="6">
         <v>5524</v>
       </c>
-      <c r="C9" s="6">
+      <c r="D9" s="6">
         <v>20017</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="6">
         <v>7676</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <v>22420</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <v>2702</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <v>13081</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>11553</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>716</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>16833</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="6">
         <v>5323</v>
       </c>
-      <c r="L9" s="7">
+      <c r="M9" s="7">
         <v>22.62</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="6">
+        <v>130357</v>
+      </c>
+      <c r="C10" s="6">
         <v>5501</v>
       </c>
-      <c r="C10" s="6">
+      <c r="D10" s="6">
         <v>20001</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E10" s="6">
         <v>7683</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <v>22247</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <v>2697</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <v>13137</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>11563</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>723</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <v>16850</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="6">
         <v>5332</v>
       </c>
-      <c r="L10" s="7">
+      <c r="M10" s="7">
         <v>22.67</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="6">
+        <v>130625</v>
+      </c>
+      <c r="C11" s="6">
         <v>5508</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D11" s="6">
         <v>20074</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <v>7682</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <v>22297</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="6">
         <v>2695</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="6">
         <v>13127</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>11562</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <v>731</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <v>16917</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="6">
         <v>5357</v>
       </c>
-      <c r="L11" s="7">
+      <c r="M11" s="7">
         <v>22.74</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="6">
+        <v>130750</v>
+      </c>
+      <c r="C12" s="6">
         <v>5506</v>
       </c>
-      <c r="C12" s="6">
+      <c r="D12" s="6">
         <v>20119</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E12" s="6">
         <v>7681</v>
       </c>
-      <c r="E12" s="6">
+      <c r="F12" s="6">
         <v>22287</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="6">
         <v>2689</v>
       </c>
-      <c r="G12" s="6">
+      <c r="H12" s="6">
         <v>13126</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <v>11585</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <v>736</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="6">
         <v>17011</v>
       </c>
-      <c r="K12" s="6">
+      <c r="L12" s="6">
         <v>5346</v>
       </c>
-      <c r="L12" s="7">
+      <c r="M12" s="7">
         <v>22.73</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="6">
+        <v>130822</v>
+      </c>
+      <c r="C13" s="6">
         <v>5467</v>
       </c>
-      <c r="C13" s="6">
+      <c r="D13" s="6">
         <v>20134</v>
       </c>
-      <c r="D13" s="6">
+      <c r="E13" s="6">
         <v>7684</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="6">
         <v>22266</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <v>2682</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <v>13157</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>11595</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>734</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <v>17080</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="6">
         <v>5337</v>
       </c>
-      <c r="L13" s="7">
+      <c r="M13" s="7">
         <v>22.76</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="6">
+        <v>130841</v>
+      </c>
+      <c r="C14" s="6">
         <v>5427</v>
       </c>
-      <c r="C14" s="6">
+      <c r="D14" s="6">
         <v>20153</v>
       </c>
-      <c r="D14" s="6">
+      <c r="E14" s="6">
         <v>7680</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="6">
         <v>22258</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="6">
         <v>2678</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <v>13149</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <v>11621</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <v>736</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="6">
         <v>17091</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="6">
         <v>5327</v>
       </c>
-      <c r="L14" s="7">
+      <c r="M14" s="7">
         <v>22.85</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="6">
+        <v>131053</v>
+      </c>
+      <c r="C15" s="6">
         <v>5451</v>
       </c>
-      <c r="C15" s="6">
+      <c r="D15" s="6">
         <v>20163</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="6">
         <v>7676</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="6">
         <v>22215</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="6">
         <v>2673</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="6">
         <v>13188</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <v>11654</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <v>739</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="6">
         <v>17170</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="6">
         <v>5337</v>
       </c>
-      <c r="L15" s="7">
+      <c r="M15" s="7">
         <v>22.87</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="6">
+        <v>131288</v>
+      </c>
+      <c r="C16" s="6">
         <v>5477</v>
       </c>
-      <c r="C16" s="6">
+      <c r="D16" s="6">
         <v>20177</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E16" s="6">
         <v>7681</v>
       </c>
-      <c r="E16" s="6">
+      <c r="F16" s="6">
         <v>22192</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="6">
         <v>2672</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <v>13247</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>11675</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
         <v>754</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="6">
         <v>17235</v>
       </c>
-      <c r="K16" s="6">
+      <c r="L16" s="6">
         <v>5333</v>
       </c>
-      <c r="L16" s="7">
+      <c r="M16" s="7">
         <v>22.87</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="6">
+        <v>131602</v>
+      </c>
+      <c r="C17" s="6">
         <v>5485</v>
       </c>
-      <c r="C17" s="6">
+      <c r="D17" s="6">
         <v>20237</v>
       </c>
-      <c r="D17" s="6">
+      <c r="E17" s="6">
         <v>7679</v>
       </c>
-      <c r="E17" s="6">
+      <c r="F17" s="6">
         <v>22184</v>
       </c>
-      <c r="F17" s="6">
+      <c r="G17" s="6">
         <v>2674</v>
       </c>
-      <c r="G17" s="6">
+      <c r="H17" s="6">
         <v>13298</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>11704</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <v>768</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="6">
         <v>17297</v>
       </c>
-      <c r="K17" s="6">
+      <c r="L17" s="6">
         <v>5342</v>
       </c>
-      <c r="L17" s="7">
+      <c r="M17" s="7">
         <v>22.92</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="6">
+        <v>131703</v>
+      </c>
+      <c r="C18" s="6">
         <v>5516</v>
       </c>
-      <c r="C18" s="6">
+      <c r="D18" s="6">
         <v>20252</v>
       </c>
-      <c r="D18" s="6">
+      <c r="E18" s="6">
         <v>7702</v>
       </c>
-      <c r="E18" s="6">
+      <c r="F18" s="6">
         <v>22129</v>
       </c>
-      <c r="F18" s="6">
+      <c r="G18" s="6">
         <v>2679</v>
       </c>
-      <c r="G18" s="6">
+      <c r="H18" s="6">
         <v>13293</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <v>11713</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <v>778</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="6">
         <v>17348</v>
       </c>
-      <c r="K18" s="6">
+      <c r="L18" s="6">
         <v>5346</v>
       </c>
-      <c r="L18" s="7">
+      <c r="M18" s="7">
         <v>22.99</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="6">
+        <v>131939</v>
+      </c>
+      <c r="C19" s="6">
         <v>5528</v>
       </c>
-      <c r="C19" s="6">
+      <c r="D19" s="6">
         <v>20288</v>
       </c>
-      <c r="D19" s="6">
+      <c r="E19" s="6">
         <v>7692</v>
       </c>
-      <c r="E19" s="6">
+      <c r="F19" s="6">
         <v>22164</v>
       </c>
-      <c r="F19" s="6">
+      <c r="G19" s="6">
         <v>2685</v>
       </c>
-      <c r="G19" s="6">
+      <c r="H19" s="6">
         <v>13343</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="6">
         <v>11727</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <v>790</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19" s="6">
         <v>17363</v>
       </c>
-      <c r="K19" s="6">
+      <c r="L19" s="6">
         <v>5352</v>
       </c>
-      <c r="L19" s="7">
+      <c r="M19" s="7">
         <v>23.01</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="6">
+        <v>131999</v>
+      </c>
+      <c r="C20" s="6">
         <v>5547</v>
       </c>
-      <c r="C20" s="6">
+      <c r="D20" s="6">
         <v>20327</v>
       </c>
-      <c r="D20" s="6">
+      <c r="E20" s="6">
         <v>7694</v>
       </c>
-      <c r="E20" s="6">
+      <c r="F20" s="6">
         <v>22049</v>
       </c>
-      <c r="F20" s="6">
+      <c r="G20" s="6">
         <v>2676</v>
       </c>
-      <c r="G20" s="6">
+      <c r="H20" s="6">
         <v>13370</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="6">
         <v>11746</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20" s="6">
         <v>801</v>
       </c>
-      <c r="J20" s="6">
+      <c r="K20" s="6">
         <v>17371</v>
       </c>
-      <c r="K20" s="6">
+      <c r="L20" s="6">
         <v>5359</v>
       </c>
-      <c r="L20" s="7">
+      <c r="M20" s="7">
         <v>23.1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="6">
+        <v>132125</v>
+      </c>
+      <c r="C21" s="6">
         <v>5552</v>
       </c>
-      <c r="C21" s="6">
+      <c r="D21" s="6">
         <v>20367</v>
       </c>
-      <c r="D21" s="6">
+      <c r="E21" s="6">
         <v>7700</v>
       </c>
-      <c r="E21" s="6">
+      <c r="F21" s="6">
         <v>22017</v>
       </c>
-      <c r="F21" s="6">
+      <c r="G21" s="6">
         <v>2634</v>
       </c>
-      <c r="G21" s="6">
+      <c r="H21" s="6">
         <v>13395</v>
       </c>
-      <c r="H21" s="6">
+      <c r="I21" s="6">
         <v>11764</v>
       </c>
-      <c r="I21" s="6">
+      <c r="J21" s="6">
         <v>804</v>
       </c>
-      <c r="J21" s="6">
+      <c r="K21" s="6">
         <v>17446</v>
       </c>
-      <c r="K21" s="6">
+      <c r="L21" s="6">
         <v>5376</v>
       </c>
-      <c r="L21" s="7">
+      <c r="M21" s="7">
         <v>23.07</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="6">
+        <v>132358</v>
+      </c>
+      <c r="C22" s="6">
         <v>5584</v>
       </c>
-      <c r="C22" s="6">
+      <c r="D22" s="6">
         <v>20415</v>
       </c>
-      <c r="D22" s="6">
+      <c r="E22" s="6">
         <v>7694</v>
       </c>
-      <c r="E22" s="6">
+      <c r="F22" s="6">
         <v>21983</v>
       </c>
-      <c r="F22" s="6">
+      <c r="G22" s="6">
         <v>2677</v>
       </c>
-      <c r="G22" s="6">
+      <c r="H22" s="6">
         <v>13426</v>
       </c>
-      <c r="H22" s="6">
+      <c r="I22" s="6">
         <v>11769</v>
       </c>
-      <c r="I22" s="6">
+      <c r="J22" s="6">
         <v>814</v>
       </c>
-      <c r="J22" s="6">
+      <c r="K22" s="6">
         <v>17510</v>
       </c>
-      <c r="K22" s="6">
+      <c r="L22" s="6">
         <v>5381</v>
       </c>
-      <c r="L22" s="7">
+      <c r="M22" s="7">
         <v>23.11</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="6">
+        <v>132562</v>
+      </c>
+      <c r="C23" s="6">
         <v>5588</v>
       </c>
-      <c r="C23" s="6">
+      <c r="D23" s="6">
         <v>20457</v>
       </c>
-      <c r="D23" s="6">
+      <c r="E23" s="6">
         <v>7707</v>
       </c>
-      <c r="E23" s="6">
+      <c r="F23" s="6">
         <v>21998</v>
       </c>
-      <c r="F23" s="6">
+      <c r="G23" s="6">
         <v>2677</v>
       </c>
-      <c r="G23" s="6">
+      <c r="H23" s="6">
         <v>13464</v>
       </c>
-      <c r="H23" s="6">
+      <c r="I23" s="6">
         <v>11780</v>
       </c>
-      <c r="I23" s="6">
+      <c r="J23" s="6">
         <v>820</v>
       </c>
-      <c r="J23" s="6">
+      <c r="K23" s="6">
         <v>17556</v>
       </c>
-      <c r="K23" s="6">
+      <c r="L23" s="6">
         <v>5382</v>
       </c>
-      <c r="L23" s="7">
+      <c r="M23" s="7">
         <v>23.21</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="6">
+        <v>132694</v>
+      </c>
+      <c r="C24" s="6">
         <v>5593</v>
       </c>
-      <c r="C24" s="6">
+      <c r="D24" s="6">
         <v>20496</v>
       </c>
-      <c r="D24" s="6">
+      <c r="E24" s="6">
         <v>7721</v>
       </c>
-      <c r="E24" s="6">
+      <c r="F24" s="6">
         <v>21971</v>
       </c>
-      <c r="F24" s="6">
+      <c r="G24" s="6">
         <v>2676</v>
       </c>
-      <c r="G24" s="6">
+      <c r="H24" s="6">
         <v>13511</v>
       </c>
-      <c r="H24" s="6">
+      <c r="I24" s="6">
         <v>11770</v>
       </c>
-      <c r="I24" s="6">
+      <c r="J24" s="6">
         <v>824</v>
       </c>
-      <c r="J24" s="6">
+      <c r="K24" s="6">
         <v>17591</v>
       </c>
-      <c r="K24" s="6">
+      <c r="L24" s="6">
         <v>5390</v>
       </c>
-      <c r="L24" s="7">
+      <c r="M24" s="7">
         <v>23.18</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="6">
+        <v>132896</v>
+      </c>
+      <c r="C25" s="6">
         <v>5611</v>
       </c>
-      <c r="C25" s="6">
+      <c r="D25" s="6">
         <v>20530</v>
       </c>
-      <c r="D25" s="6">
+      <c r="E25" s="6">
         <v>7729</v>
       </c>
-      <c r="E25" s="6">
+      <c r="F25" s="6">
         <v>21954</v>
       </c>
-      <c r="F25" s="6">
+      <c r="G25" s="6">
         <v>2678</v>
       </c>
-      <c r="G25" s="6">
+      <c r="H25" s="6">
         <v>13538</v>
       </c>
-      <c r="H25" s="6">
+      <c r="I25" s="6">
         <v>11802</v>
       </c>
-      <c r="I25" s="6">
+      <c r="J25" s="6">
         <v>831</v>
       </c>
-      <c r="J25" s="6">
+      <c r="K25" s="6">
         <v>17658</v>
       </c>
-      <c r="K25" s="6">
+      <c r="L25" s="6">
         <v>5403</v>
       </c>
-      <c r="L25" s="7">
+      <c r="M25" s="7">
         <v>23.21</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="6">
+        <v>133250</v>
+      </c>
+      <c r="C26" s="6">
         <v>5626</v>
       </c>
-      <c r="C26" s="6">
+      <c r="D26" s="6">
         <v>20574</v>
       </c>
-      <c r="D26" s="6">
+      <c r="E26" s="6">
         <v>7735</v>
       </c>
-      <c r="E26" s="6">
+      <c r="F26" s="6">
         <v>21946</v>
       </c>
-      <c r="F26" s="6">
+      <c r="G26" s="6">
         <v>2665</v>
       </c>
-      <c r="G26" s="6">
+      <c r="H26" s="6">
         <v>13600</v>
       </c>
-      <c r="H26" s="6">
+      <c r="I26" s="6">
         <v>11838</v>
       </c>
-      <c r="I26" s="6">
+      <c r="J26" s="6">
         <v>840</v>
       </c>
-      <c r="J26" s="6">
+      <c r="K26" s="6">
         <v>17745</v>
       </c>
-      <c r="K26" s="6">
+      <c r="L26" s="6">
         <v>5414</v>
       </c>
-      <c r="L26" s="7">
+      <c r="M26" s="7">
         <v>23.24</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="6">
+        <v>133512</v>
+      </c>
+      <c r="C27" s="6">
         <v>5629</v>
       </c>
-      <c r="C27" s="6">
+      <c r="D27" s="6">
         <v>20657</v>
       </c>
-      <c r="D27" s="6">
+      <c r="E27" s="6">
         <v>7743</v>
       </c>
-      <c r="E27" s="6">
+      <c r="F27" s="6">
         <v>21947</v>
       </c>
-      <c r="F27" s="6">
+      <c r="G27" s="6">
         <v>2676</v>
       </c>
-      <c r="G27" s="6">
+      <c r="H27" s="6">
         <v>13641</v>
       </c>
-      <c r="H27" s="6">
+      <c r="I27" s="6">
         <v>11860</v>
       </c>
-      <c r="I27" s="6">
+      <c r="J27" s="6">
         <v>845</v>
       </c>
-      <c r="J27" s="6">
+      <c r="K27" s="6">
         <v>17816</v>
       </c>
-      <c r="K27" s="6">
+      <c r="L27" s="6">
         <v>5415</v>
       </c>
-      <c r="L27" s="7">
+      <c r="M27" s="7">
         <v>23.27</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="6">
+        <v>133752</v>
+      </c>
+      <c r="C28" s="6">
         <v>5625</v>
       </c>
-      <c r="C28" s="6">
+      <c r="D28" s="6">
         <v>20689</v>
       </c>
-      <c r="D28" s="6">
+      <c r="E28" s="6">
         <v>7768</v>
       </c>
-      <c r="E28" s="6">
+      <c r="F28" s="6">
         <v>21943</v>
       </c>
-      <c r="F28" s="6">
+      <c r="G28" s="6">
         <v>2678</v>
       </c>
-      <c r="G28" s="6">
+      <c r="H28" s="6">
         <v>13706</v>
       </c>
-      <c r="H28" s="6">
+      <c r="I28" s="6">
         <v>11898</v>
       </c>
-      <c r="I28" s="6">
+      <c r="J28" s="6">
         <v>849</v>
       </c>
-      <c r="J28" s="6">
+      <c r="K28" s="6">
         <v>17848</v>
       </c>
-      <c r="K28" s="6">
+      <c r="L28" s="6">
         <v>5422</v>
       </c>
-      <c r="L28" s="7">
+      <c r="M28" s="7">
         <v>23.36</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="6">
+        <v>133834</v>
+      </c>
+      <c r="C29" s="6">
         <v>5618</v>
       </c>
-      <c r="C29" s="6">
+      <c r="D29" s="6">
         <v>20707</v>
       </c>
-      <c r="D29" s="6">
+      <c r="E29" s="6">
         <v>7771</v>
       </c>
-      <c r="E29" s="6">
+      <c r="F29" s="6">
         <v>21931</v>
       </c>
-      <c r="F29" s="6">
+      <c r="G29" s="6">
         <v>2679</v>
       </c>
-      <c r="G29" s="6">
+      <c r="H29" s="6">
         <v>13709</v>
       </c>
-      <c r="H29" s="6">
+      <c r="I29" s="6">
         <v>11916</v>
       </c>
-      <c r="I29" s="6">
+      <c r="J29" s="6">
         <v>850</v>
       </c>
-      <c r="J29" s="6">
+      <c r="K29" s="6">
         <v>17897</v>
       </c>
-      <c r="K29" s="6">
+      <c r="L29" s="6">
         <v>5417</v>
       </c>
-      <c r="L29" s="7">
+      <c r="M29" s="7">
         <v>23.39</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="6">
+        <v>133934</v>
+      </c>
+      <c r="C30" s="6">
         <v>5604</v>
       </c>
-      <c r="C30" s="6">
+      <c r="D30" s="6">
         <v>20747</v>
       </c>
-      <c r="D30" s="6">
+      <c r="E30" s="6">
         <v>7783</v>
       </c>
-      <c r="E30" s="6">
+      <c r="F30" s="6">
         <v>21911</v>
       </c>
-      <c r="F30" s="6">
+      <c r="G30" s="6">
         <v>2685</v>
       </c>
-      <c r="G30" s="6">
+      <c r="H30" s="6">
         <v>13705</v>
       </c>
-      <c r="H30" s="6">
+      <c r="I30" s="6">
         <v>11927</v>
       </c>
-      <c r="I30" s="6">
+      <c r="J30" s="6">
         <v>855</v>
       </c>
-      <c r="J30" s="6">
+      <c r="K30" s="6">
         <v>17922</v>
       </c>
-      <c r="K30" s="6">
+      <c r="L30" s="6">
         <v>5417</v>
       </c>
-      <c r="L30" s="7">
+      <c r="M30" s="7">
         <v>23.39</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="6">
+        <v>134007</v>
+      </c>
+      <c r="C31" s="6">
         <v>5621</v>
       </c>
-      <c r="C31" s="6">
+      <c r="D31" s="6">
         <v>20738</v>
       </c>
-      <c r="D31" s="6">
+      <c r="E31" s="6">
         <v>7783</v>
       </c>
-      <c r="E31" s="6">
+      <c r="F31" s="6">
         <v>21930</v>
       </c>
-      <c r="F31" s="6">
+      <c r="G31" s="6">
         <v>2674</v>
       </c>
-      <c r="G31" s="6">
+      <c r="H31" s="6">
         <v>13702</v>
       </c>
-      <c r="H31" s="6">
+      <c r="I31" s="6">
         <v>11936</v>
       </c>
-      <c r="I31" s="6">
+      <c r="J31" s="6">
         <v>854</v>
       </c>
-      <c r="J31" s="6">
+      <c r="K31" s="6">
         <v>17977</v>
       </c>
-      <c r="K31" s="6">
+      <c r="L31" s="6">
         <v>5424</v>
       </c>
-      <c r="L31" s="7">
+      <c r="M31" s="7">
         <v>23.46</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="6">
+        <v>134159</v>
+      </c>
+      <c r="C32" s="6">
         <v>5632</v>
       </c>
-      <c r="C32" s="6">
+      <c r="D32" s="6">
         <v>20773</v>
       </c>
-      <c r="D32" s="6">
+      <c r="E32" s="6">
         <v>7779</v>
       </c>
-      <c r="E32" s="6">
+      <c r="F32" s="6">
         <v>21913</v>
       </c>
-      <c r="F32" s="6">
+      <c r="G32" s="6">
         <v>2680</v>
       </c>
-      <c r="G32" s="6">
+      <c r="H32" s="6">
         <v>13735</v>
       </c>
-      <c r="H32" s="6">
+      <c r="I32" s="6">
         <v>11964</v>
       </c>
-      <c r="I32" s="6">
+      <c r="J32" s="6">
         <v>851</v>
       </c>
-      <c r="J32" s="6">
+      <c r="K32" s="6">
         <v>18020</v>
       </c>
-      <c r="K32" s="6">
+      <c r="L32" s="6">
         <v>5433</v>
       </c>
-      <c r="L32" s="7">
+      <c r="M32" s="7">
         <v>23.51</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="6">
+        <v>134331</v>
+      </c>
+      <c r="C33" s="6">
         <v>5648</v>
       </c>
-      <c r="C33" s="6">
+      <c r="D33" s="6">
         <v>20801</v>
       </c>
-      <c r="D33" s="6">
+      <c r="E33" s="6">
         <v>7788</v>
       </c>
-      <c r="E33" s="6">
+      <c r="F33" s="6">
         <v>21916</v>
       </c>
-      <c r="F33" s="6">
+      <c r="G33" s="6">
         <v>2676</v>
       </c>
-      <c r="G33" s="6">
+      <c r="H33" s="6">
         <v>13804</v>
       </c>
-      <c r="H33" s="6">
+      <c r="I33" s="6">
         <v>11960</v>
       </c>
-      <c r="I33" s="6">
+      <c r="J33" s="6">
         <v>851</v>
       </c>
-      <c r="J33" s="6">
+      <c r="K33" s="6">
         <v>18052</v>
       </c>
-      <c r="K33" s="6">
+      <c r="L33" s="6">
         <v>5431</v>
       </c>
-      <c r="L33" s="7">
+      <c r="M33" s="7">
         <v>23.49</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="6">
+        <v>134518</v>
+      </c>
+      <c r="C34" s="6">
         <v>5661</v>
       </c>
-      <c r="C34" s="6">
+      <c r="D34" s="6">
         <v>20841</v>
       </c>
-      <c r="D34" s="6">
+      <c r="E34" s="6">
         <v>7800</v>
       </c>
-      <c r="E34" s="6">
+      <c r="F34" s="6">
         <v>21925</v>
       </c>
-      <c r="F34" s="6">
+      <c r="G34" s="6">
         <v>2670</v>
       </c>
-      <c r="G34" s="6">
+      <c r="H34" s="6">
         <v>13872</v>
       </c>
-      <c r="H34" s="6">
+      <c r="I34" s="6">
         <v>11954</v>
       </c>
-      <c r="I34" s="6">
+      <c r="J34" s="6">
         <v>846</v>
       </c>
-      <c r="J34" s="6">
+      <c r="K34" s="6">
         <v>18066</v>
       </c>
-      <c r="K34" s="6">
+      <c r="L34" s="6">
         <v>5442</v>
       </c>
-      <c r="L34" s="7">
+      <c r="M34" s="7">
         <v>23.57</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="6">
+        <v>134677</v>
+      </c>
+      <c r="C35" s="6">
         <v>5674</v>
       </c>
-      <c r="C35" s="6">
+      <c r="D35" s="6">
         <v>20881</v>
       </c>
-      <c r="D35" s="6">
+      <c r="E35" s="6">
         <v>7809</v>
       </c>
-      <c r="E35" s="6">
+      <c r="F35" s="6">
         <v>21903</v>
       </c>
-      <c r="F35" s="6">
+      <c r="G35" s="6">
         <v>2667</v>
       </c>
-      <c r="G35" s="6">
+      <c r="H35" s="6">
         <v>13883</v>
       </c>
-      <c r="H35" s="6">
+      <c r="I35" s="6">
         <v>11961</v>
       </c>
-      <c r="I35" s="6">
+      <c r="J35" s="6">
         <v>837</v>
       </c>
-      <c r="J35" s="6">
+      <c r="K35" s="6">
         <v>18139</v>
       </c>
-      <c r="K35" s="6">
+      <c r="L35" s="6">
         <v>5446</v>
       </c>
-      <c r="L35" s="7">
+      <c r="M35" s="7">
         <v>23.56</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="6">
+        <v>134833</v>
+      </c>
+      <c r="C36" s="6">
         <v>5684</v>
       </c>
-      <c r="C36" s="6">
+      <c r="D36" s="6">
         <v>20887</v>
       </c>
-      <c r="D36" s="6">
+      <c r="E36" s="6">
         <v>7815</v>
       </c>
-      <c r="E36" s="6">
+      <c r="F36" s="6">
         <v>21883</v>
       </c>
-      <c r="F36" s="6">
+      <c r="G36" s="6">
         <v>2674</v>
       </c>
-      <c r="G36" s="6">
+      <c r="H36" s="6">
         <v>13910</v>
       </c>
-      <c r="H36" s="6">
+      <c r="I36" s="6">
         <v>11950</v>
       </c>
-      <c r="I36" s="6">
+      <c r="J36" s="6">
         <v>843</v>
       </c>
-      <c r="J36" s="6">
+      <c r="K36" s="6">
         <v>18193</v>
       </c>
-      <c r="K36" s="6">
+      <c r="L36" s="6">
         <v>5449</v>
       </c>
-      <c r="L36" s="7">
+      <c r="M36" s="7">
         <v>23.63</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="6">
+        <v>135072</v>
+      </c>
+      <c r="C37" s="6">
         <v>5724</v>
       </c>
-      <c r="C37" s="6">
+      <c r="D37" s="6">
         <v>20935</v>
       </c>
-      <c r="D37" s="6">
+      <c r="E37" s="6">
         <v>7827</v>
       </c>
-      <c r="E37" s="6">
+      <c r="F37" s="6">
         <v>21887</v>
       </c>
-      <c r="F37" s="6">
+      <c r="G37" s="6">
         <v>2675</v>
       </c>
-      <c r="G37" s="6">
+      <c r="H37" s="6">
         <v>13978</v>
       </c>
-      <c r="H37" s="6">
+      <c r="I37" s="6">
         <v>11960</v>
       </c>
-      <c r="I37" s="6">
+      <c r="J37" s="6">
         <v>848</v>
       </c>
-      <c r="J37" s="6">
+      <c r="K37" s="6">
         <v>18230</v>
       </c>
-      <c r="K37" s="6">
+      <c r="L37" s="6">
         <v>5452</v>
       </c>
-      <c r="L37" s="7">
+      <c r="M37" s="7">
         <v>23.73</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="6">
+        <v>135263</v>
+      </c>
+      <c r="C38" s="6">
         <v>5746</v>
       </c>
-      <c r="C38" s="6">
+      <c r="D38" s="6">
         <v>20956</v>
       </c>
-      <c r="D38" s="6">
+      <c r="E38" s="6">
         <v>7836</v>
       </c>
-      <c r="E38" s="6">
+      <c r="F38" s="6">
         <v>21869</v>
       </c>
-      <c r="F38" s="6">
+      <c r="G38" s="6">
         <v>2661</v>
       </c>
-      <c r="G38" s="6">
+      <c r="H38" s="6">
         <v>14037</v>
       </c>
-      <c r="H38" s="6">
+      <c r="I38" s="6">
         <v>11983</v>
       </c>
-      <c r="I38" s="6">
+      <c r="J38" s="6">
         <v>851</v>
       </c>
-      <c r="J38" s="6">
+      <c r="K38" s="6">
         <v>18273</v>
       </c>
-      <c r="K38" s="6">
+      <c r="L38" s="6">
         <v>5458</v>
       </c>
-      <c r="L38" s="7">
+      <c r="M38" s="7">
         <v>23.76</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="6">
+        <v>135541</v>
+      </c>
+      <c r="C39" s="6">
         <v>5784</v>
       </c>
-      <c r="C39" s="6">
+      <c r="D39" s="6">
         <v>20958</v>
       </c>
-      <c r="D39" s="6">
+      <c r="E39" s="6">
         <v>7850</v>
       </c>
-      <c r="E39" s="6">
+      <c r="F39" s="6">
         <v>21881</v>
       </c>
-      <c r="F39" s="6">
+      <c r="G39" s="6">
         <v>2699</v>
       </c>
-      <c r="G39" s="6">
+      <c r="H39" s="6">
         <v>14082</v>
       </c>
-      <c r="H39" s="6">
+      <c r="I39" s="6">
         <v>11996</v>
       </c>
-      <c r="I39" s="6">
+      <c r="J39" s="6">
         <v>858</v>
       </c>
-      <c r="J39" s="6">
+      <c r="K39" s="6">
         <v>18367</v>
       </c>
-      <c r="K39" s="6">
+      <c r="L39" s="6">
         <v>5456</v>
       </c>
-      <c r="L39" s="7">
+      <c r="M39" s="7">
         <v>23.77</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="6">
+        <v>135680</v>
+      </c>
+      <c r="C40" s="6">
         <v>5802</v>
       </c>
-      <c r="C40" s="6">
+      <c r="D40" s="6">
         <v>21007</v>
       </c>
-      <c r="D40" s="6">
+      <c r="E40" s="6">
         <v>7857</v>
       </c>
-      <c r="E40" s="6">
+      <c r="F40" s="6">
         <v>21870</v>
       </c>
-      <c r="F40" s="6">
+      <c r="G40" s="6">
         <v>2699</v>
       </c>
-      <c r="G40" s="6">
+      <c r="H40" s="6">
         <v>14113</v>
       </c>
-      <c r="H40" s="6">
+      <c r="I40" s="6">
         <v>11999</v>
       </c>
-      <c r="I40" s="6">
+      <c r="J40" s="6">
         <v>859</v>
       </c>
-      <c r="J40" s="6">
+      <c r="K40" s="6">
         <v>18421</v>
       </c>
-      <c r="K40" s="6">
+      <c r="L40" s="6">
         <v>5451</v>
       </c>
-      <c r="L40" s="7">
+      <c r="M40" s="7">
         <v>23.81</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="6">
+        <v>135871</v>
+      </c>
+      <c r="C41" s="6">
         <v>5796</v>
       </c>
-      <c r="C41" s="6">
+      <c r="D41" s="6">
         <v>21054</v>
       </c>
-      <c r="D41" s="6">
+      <c r="E41" s="6">
         <v>7872</v>
       </c>
-      <c r="E41" s="6">
+      <c r="F41" s="6">
         <v>21869</v>
       </c>
-      <c r="F41" s="6">
+      <c r="G41" s="6">
         <v>2696</v>
       </c>
-      <c r="G41" s="6">
+      <c r="H41" s="6">
         <v>14152</v>
       </c>
-      <c r="H41" s="6">
+      <c r="I41" s="6">
         <v>12000</v>
       </c>
-      <c r="I41" s="6">
+      <c r="J41" s="6">
         <v>857</v>
       </c>
-      <c r="J41" s="6">
+      <c r="K41" s="6">
         <v>18483</v>
       </c>
-      <c r="K41" s="6">
+      <c r="L41" s="6">
         <v>5455</v>
       </c>
-      <c r="L41" s="7">
+      <c r="M41" s="7">
         <v>23.87</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="6">
+        <v>136093</v>
+      </c>
+      <c r="C42" s="6">
         <v>5829</v>
       </c>
-      <c r="C42" s="6">
+      <c r="D42" s="6">
         <v>21071</v>
       </c>
-      <c r="D42" s="6">
+      <c r="E42" s="6">
         <v>7883</v>
       </c>
-      <c r="E42" s="6">
+      <c r="F42" s="6">
         <v>21864</v>
       </c>
-      <c r="F42" s="6">
+      <c r="G42" s="6">
         <v>2711</v>
       </c>
-      <c r="G42" s="6">
+      <c r="H42" s="6">
         <v>14193</v>
       </c>
-      <c r="H42" s="6">
+      <c r="I42" s="6">
         <v>12000</v>
       </c>
-      <c r="I42" s="6">
+      <c r="J42" s="6">
         <v>862</v>
       </c>
-      <c r="J42" s="6">
+      <c r="K42" s="6">
         <v>18537</v>
       </c>
-      <c r="K42" s="6">
+      <c r="L42" s="6">
         <v>5470</v>
       </c>
-      <c r="L42" s="7">
+      <c r="M42" s="7">
         <v>23.89</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="6">
+        <v>136274</v>
+      </c>
+      <c r="C43" s="6">
         <v>5855</v>
       </c>
-      <c r="C43" s="6">
+      <c r="D43" s="6">
         <v>21070</v>
       </c>
-      <c r="D43" s="6">
+      <c r="E43" s="6">
         <v>7888</v>
       </c>
-      <c r="E43" s="6">
+      <c r="F43" s="6">
         <v>21840</v>
       </c>
-      <c r="F43" s="6">
+      <c r="G43" s="6">
         <v>2707</v>
       </c>
-      <c r="G43" s="6">
+      <c r="H43" s="6">
         <v>14252</v>
       </c>
-      <c r="H43" s="6">
+      <c r="I43" s="6">
         <v>12004</v>
       </c>
-      <c r="I43" s="6">
+      <c r="J43" s="6">
         <v>865</v>
       </c>
-      <c r="J43" s="6">
+      <c r="K43" s="6">
         <v>18582</v>
       </c>
-      <c r="K43" s="6">
+      <c r="L43" s="6">
         <v>5480</v>
       </c>
-      <c r="L43" s="7">
+      <c r="M43" s="7">
         <v>23.97</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="6">
+        <v>136386</v>
+      </c>
+      <c r="C44" s="6">
         <v>5859</v>
       </c>
-      <c r="C44" s="6">
+      <c r="D44" s="6">
         <v>21074</v>
       </c>
-      <c r="D44" s="6">
+      <c r="E44" s="6">
         <v>7904</v>
       </c>
-      <c r="E44" s="6">
+      <c r="F44" s="6">
         <v>21815</v>
       </c>
-      <c r="F44" s="6">
+      <c r="G44" s="6">
         <v>2720</v>
       </c>
-      <c r="G44" s="6">
+      <c r="H44" s="6">
         <v>14288</v>
       </c>
-      <c r="H44" s="6">
+      <c r="I44" s="6">
         <v>11984</v>
       </c>
-      <c r="I44" s="6">
+      <c r="J44" s="6">
         <v>862</v>
       </c>
-      <c r="J44" s="6">
+      <c r="K44" s="6">
         <v>18629</v>
       </c>
-      <c r="K44" s="6">
+      <c r="L44" s="6">
         <v>5483</v>
       </c>
-      <c r="L44" s="7">
+      <c r="M44" s="7">
         <v>23.98</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="6">
+        <v>136628</v>
+      </c>
+      <c r="C45" s="6">
         <v>5878</v>
       </c>
-      <c r="C45" s="6">
+      <c r="D45" s="6">
         <v>21143</v>
       </c>
-      <c r="D45" s="6">
+      <c r="E45" s="6">
         <v>7903</v>
       </c>
-      <c r="E45" s="6">
+      <c r="F45" s="6">
         <v>21831</v>
       </c>
-      <c r="F45" s="6">
+      <c r="G45" s="6">
         <v>2690</v>
       </c>
-      <c r="G45" s="6">
+      <c r="H45" s="6">
         <v>14327</v>
       </c>
-      <c r="H45" s="6">
+      <c r="I45" s="6">
         <v>12014</v>
       </c>
-      <c r="I45" s="6">
+      <c r="J45" s="6">
         <v>864</v>
       </c>
-      <c r="J45" s="6">
+      <c r="K45" s="6">
         <v>18655</v>
       </c>
-      <c r="K45" s="6">
+      <c r="L45" s="6">
         <v>5494</v>
       </c>
-      <c r="L45" s="7">
+      <c r="M45" s="7">
         <v>24.03</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="6">
+        <v>136815</v>
+      </c>
+      <c r="C46" s="6">
         <v>5910</v>
       </c>
-      <c r="C46" s="6">
+      <c r="D46" s="6">
         <v>21133</v>
       </c>
-      <c r="D46" s="6">
+      <c r="E46" s="6">
         <v>7904</v>
       </c>
-      <c r="E46" s="6">
+      <c r="F46" s="6">
         <v>21835</v>
       </c>
-      <c r="F46" s="6">
+      <c r="G46" s="6">
         <v>2707</v>
       </c>
-      <c r="G46" s="6">
+      <c r="H46" s="6">
         <v>14339</v>
       </c>
-      <c r="H46" s="6">
+      <c r="I46" s="6">
         <v>12032</v>
       </c>
-      <c r="I46" s="6">
+      <c r="J46" s="6">
         <v>868</v>
       </c>
-      <c r="J46" s="6">
+      <c r="K46" s="6">
         <v>18683</v>
       </c>
-      <c r="K46" s="6">
+      <c r="L46" s="6">
         <v>5502</v>
       </c>
-      <c r="L46" s="7">
+      <c r="M46" s="7">
         <v>24.06</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="6">
+        <v>137040</v>
+      </c>
+      <c r="C47" s="6">
         <v>5931</v>
       </c>
-      <c r="C47" s="6">
+      <c r="D47" s="6">
         <v>21158</v>
       </c>
-      <c r="D47" s="6">
+      <c r="E47" s="6">
         <v>7910</v>
       </c>
-      <c r="E47" s="6">
+      <c r="F47" s="6">
         <v>21830</v>
       </c>
-      <c r="F47" s="6">
+      <c r="G47" s="6">
         <v>2719</v>
       </c>
-      <c r="G47" s="6">
+      <c r="H47" s="6">
         <v>14395</v>
       </c>
-      <c r="H47" s="6">
+      <c r="I47" s="6">
         <v>12056</v>
       </c>
-      <c r="I47" s="6">
+      <c r="J47" s="6">
         <v>870</v>
       </c>
-      <c r="J47" s="6">
+      <c r="K47" s="6">
         <v>18732</v>
       </c>
-      <c r="K47" s="6">
+      <c r="L47" s="6">
         <v>5509</v>
       </c>
-      <c r="L47" s="7">
+      <c r="M47" s="7">
         <v>24.09</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="6">
+        <v>137304</v>
+      </c>
+      <c r="C48" s="6">
         <v>5963</v>
       </c>
-      <c r="C48" s="6">
+      <c r="D48" s="6">
         <v>21194</v>
       </c>
-      <c r="D48" s="6">
+      <c r="E48" s="6">
         <v>7910</v>
       </c>
-      <c r="E48" s="6">
+      <c r="F48" s="6">
         <v>21843</v>
       </c>
-      <c r="F48" s="6">
+      <c r="G48" s="6">
         <v>2724</v>
       </c>
-      <c r="G48" s="6">
+      <c r="H48" s="6">
         <v>14432</v>
       </c>
-      <c r="H48" s="6">
+      <c r="I48" s="6">
         <v>12079</v>
       </c>
-      <c r="I48" s="6">
+      <c r="J48" s="6">
         <v>869</v>
       </c>
-      <c r="J48" s="6">
+      <c r="K48" s="6">
         <v>18801</v>
       </c>
-      <c r="K48" s="6">
+      <c r="L48" s="6">
         <v>5513</v>
       </c>
-      <c r="L48" s="7">
+      <c r="M48" s="7">
         <v>24.16</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="6">
+        <v>137373</v>
+      </c>
+      <c r="C49" s="6">
         <v>5932</v>
       </c>
-      <c r="C49" s="6">
+      <c r="D49" s="6">
         <v>21196</v>
       </c>
-      <c r="D49" s="6">
+      <c r="E49" s="6">
         <v>7914</v>
       </c>
-      <c r="E49" s="6">
+      <c r="F49" s="6">
         <v>21820</v>
       </c>
-      <c r="F49" s="6">
+      <c r="G49" s="6">
         <v>2726</v>
       </c>
-      <c r="G49" s="6">
+      <c r="H49" s="6">
         <v>14454</v>
       </c>
-      <c r="H49" s="6">
+      <c r="I49" s="6">
         <v>12083</v>
       </c>
-      <c r="I49" s="6">
+      <c r="J49" s="6">
         <v>866</v>
       </c>
-      <c r="J49" s="6">
+      <c r="K49" s="6">
         <v>18790</v>
       </c>
-      <c r="K49" s="6">
+      <c r="L49" s="6">
         <v>5525</v>
       </c>
-      <c r="L49" s="7">
+      <c r="M49" s="7">
         <v>24.17</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="6">
+        <v>137548</v>
+      </c>
+      <c r="C50" s="6">
         <v>5985</v>
       </c>
-      <c r="C50" s="6">
+      <c r="D50" s="6">
         <v>21228</v>
       </c>
-      <c r="D50" s="6">
+      <c r="E50" s="6">
         <v>7913</v>
       </c>
-      <c r="E50" s="6">
+      <c r="F50" s="6">
         <v>21814</v>
       </c>
-      <c r="F50" s="6">
+      <c r="G50" s="6">
         <v>2721</v>
       </c>
-      <c r="G50" s="6">
+      <c r="H50" s="6">
         <v>14489</v>
       </c>
-      <c r="H50" s="6">
+      <c r="I50" s="6">
         <v>12081</v>
       </c>
-      <c r="I50" s="6">
+      <c r="J50" s="6">
         <v>871</v>
       </c>
-      <c r="J50" s="6">
+      <c r="K50" s="6">
         <v>18837</v>
       </c>
-      <c r="K50" s="6">
+      <c r="L50" s="6">
         <v>5533</v>
       </c>
-      <c r="L50" s="7">
+      <c r="M50" s="7">
         <v>24.21</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="6">
+        <v>137714</v>
+      </c>
+      <c r="C51" s="6">
         <v>6007</v>
       </c>
-      <c r="C51" s="6">
+      <c r="D51" s="6">
         <v>21251</v>
       </c>
-      <c r="D51" s="6">
+      <c r="E51" s="6">
         <v>7930</v>
       </c>
-      <c r="E51" s="6">
+      <c r="F51" s="6">
         <v>21825</v>
       </c>
-      <c r="F51" s="6">
+      <c r="G51" s="6">
         <v>2719</v>
       </c>
-      <c r="G51" s="6">
+      <c r="H51" s="6">
         <v>14509</v>
       </c>
-      <c r="H51" s="6">
+      <c r="I51" s="6">
         <v>12106</v>
       </c>
-      <c r="I51" s="6">
+      <c r="J51" s="6">
         <v>875</v>
       </c>
-      <c r="J51" s="6">
+      <c r="K51" s="6">
         <v>18899</v>
       </c>
-      <c r="K51" s="6">
+      <c r="L51" s="6">
         <v>5535</v>
       </c>
-      <c r="L51" s="7">
+      <c r="M51" s="7">
         <v>24.32</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="6">
+        <v>137968</v>
+      </c>
+      <c r="C52" s="6">
         <v>6038</v>
       </c>
-      <c r="C52" s="6">
+      <c r="D52" s="6">
         <v>21294</v>
       </c>
-      <c r="D52" s="6">
+      <c r="E52" s="6">
         <v>7932</v>
       </c>
-      <c r="E52" s="6">
+      <c r="F52" s="6">
         <v>21833</v>
       </c>
-      <c r="F52" s="6">
+      <c r="G52" s="6">
         <v>2725</v>
       </c>
-      <c r="G52" s="6">
+      <c r="H52" s="6">
         <v>14564</v>
       </c>
-      <c r="H52" s="6">
+      <c r="I52" s="6">
         <v>12120</v>
       </c>
-      <c r="I52" s="6">
+      <c r="J52" s="6">
         <v>879</v>
       </c>
-      <c r="J52" s="6">
+      <c r="K52" s="6">
         <v>18944</v>
       </c>
-      <c r="K52" s="6">
+      <c r="L52" s="6">
         <v>5553</v>
       </c>
-      <c r="L52" s="7">
+      <c r="M52" s="7">
         <v>24.31</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="6">
+        <v>138293</v>
+      </c>
+      <c r="C53" s="6">
         <v>6084</v>
       </c>
-      <c r="C53" s="6">
+      <c r="D53" s="6">
         <v>21321</v>
       </c>
-      <c r="D53" s="6">
+      <c r="E53" s="6">
         <v>7944</v>
       </c>
-      <c r="E53" s="6">
+      <c r="F53" s="6">
         <v>21853</v>
       </c>
-      <c r="F53" s="6">
+      <c r="G53" s="6">
         <v>2722</v>
       </c>
-      <c r="G53" s="6">
+      <c r="H53" s="6">
         <v>14614</v>
       </c>
-      <c r="H53" s="6">
+      <c r="I53" s="6">
         <v>12134</v>
       </c>
-      <c r="I53" s="6">
+      <c r="J53" s="6">
         <v>886</v>
       </c>
-      <c r="J53" s="6">
+      <c r="K53" s="6">
         <v>19002</v>
       </c>
-      <c r="K53" s="6">
+      <c r="L53" s="6">
         <v>5565</v>
       </c>
-      <c r="L53" s="7">
+      <c r="M53" s="7">
         <v>24.34</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="6">
+        <v>138511</v>
+      </c>
+      <c r="C54" s="6">
         <v>6109</v>
       </c>
-      <c r="C54" s="6">
+      <c r="D54" s="6">
         <v>21364</v>
       </c>
-      <c r="D54" s="6">
+      <c r="E54" s="6">
         <v>7951</v>
       </c>
-      <c r="E54" s="6">
+      <c r="F54" s="6">
         <v>21832</v>
       </c>
-      <c r="F54" s="6">
+      <c r="G54" s="6">
         <v>2719</v>
       </c>
-      <c r="G54" s="6">
+      <c r="H54" s="6">
         <v>14670</v>
       </c>
-      <c r="H54" s="6">
+      <c r="I54" s="6">
         <v>12146</v>
       </c>
-      <c r="I54" s="6">
+      <c r="J54" s="6">
         <v>887</v>
       </c>
-      <c r="J54" s="6">
+      <c r="K54" s="6">
         <v>19044</v>
       </c>
-      <c r="K54" s="6">
+      <c r="L54" s="6">
         <v>5566</v>
       </c>
-      <c r="L54" s="7">
+      <c r="M54" s="7">
         <v>24.4</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="6">
+        <v>138837</v>
+      </c>
+      <c r="C55" s="6">
         <v>6133</v>
       </c>
-      <c r="C55" s="6">
+      <c r="D55" s="6">
         <v>21410</v>
       </c>
-      <c r="D55" s="6">
+      <c r="E55" s="6">
         <v>7968</v>
       </c>
-      <c r="E55" s="6">
+      <c r="F55" s="6">
         <v>21895</v>
       </c>
-      <c r="F55" s="6">
+      <c r="G55" s="6">
         <v>2725</v>
       </c>
-      <c r="G55" s="6">
+      <c r="H55" s="6">
         <v>14693</v>
       </c>
-      <c r="H55" s="6">
+      <c r="I55" s="6">
         <v>12170</v>
       </c>
-      <c r="I55" s="6">
+      <c r="J55" s="6">
         <v>892</v>
       </c>
-      <c r="J55" s="6">
+      <c r="K55" s="6">
         <v>19105</v>
       </c>
-      <c r="K55" s="6">
+      <c r="L55" s="6">
         <v>5563</v>
       </c>
-      <c r="L55" s="7">
+      <c r="M55" s="7">
         <v>24.44</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="6">
+        <v>139069</v>
+      </c>
+      <c r="C56" s="6">
         <v>6178</v>
       </c>
-      <c r="C56" s="6">
+      <c r="D56" s="6">
         <v>21453</v>
       </c>
-      <c r="D56" s="6">
+      <c r="E56" s="6">
         <v>7980</v>
       </c>
-      <c r="E56" s="6">
+      <c r="F56" s="6">
         <v>21901</v>
       </c>
-      <c r="F56" s="6">
+      <c r="G56" s="6">
         <v>2724</v>
       </c>
-      <c r="G56" s="6">
+      <c r="H56" s="6">
         <v>14703</v>
       </c>
-      <c r="H56" s="6">
+      <c r="I56" s="6">
         <v>12189</v>
       </c>
-      <c r="I56" s="6">
+      <c r="J56" s="6">
         <v>897</v>
       </c>
-      <c r="J56" s="6">
+      <c r="K56" s="6">
         <v>19142</v>
       </c>
-      <c r="K56" s="6">
+      <c r="L56" s="6">
         <v>5565</v>
       </c>
-      <c r="L56" s="7">
+      <c r="M56" s="7">
         <v>24.48</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="6">
+        <v>139257</v>
+      </c>
+      <c r="C57" s="6">
         <v>6210</v>
       </c>
-      <c r="C57" s="6">
+      <c r="D57" s="6">
         <v>21491</v>
       </c>
-      <c r="D57" s="6">
+      <c r="E57" s="6">
         <v>7995</v>
       </c>
-      <c r="E57" s="6">
+      <c r="F57" s="6">
         <v>21855</v>
       </c>
-      <c r="F57" s="6">
+      <c r="G57" s="6">
         <v>2731</v>
       </c>
-      <c r="G57" s="6">
+      <c r="H57" s="6">
         <v>14725</v>
       </c>
-      <c r="H57" s="6">
+      <c r="I57" s="6">
         <v>12208</v>
       </c>
-      <c r="I57" s="6">
+      <c r="J57" s="6">
         <v>898</v>
       </c>
-      <c r="J57" s="6">
+      <c r="K57" s="6">
         <v>19201</v>
       </c>
-      <c r="K57" s="6">
+      <c r="L57" s="6">
         <v>5580</v>
       </c>
-      <c r="L57" s="7">
+      <c r="M57" s="7">
         <v>24.55</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="6">
+        <v>139566</v>
+      </c>
+      <c r="C58" s="6">
         <v>6242</v>
       </c>
-      <c r="C58" s="6">
+      <c r="D58" s="6">
         <v>21543</v>
       </c>
-      <c r="D58" s="6">
+      <c r="E58" s="6">
         <v>8008</v>
       </c>
-      <c r="E58" s="6">
+      <c r="F58" s="6">
         <v>21897</v>
       </c>
-      <c r="F58" s="6">
+      <c r="G58" s="6">
         <v>2732</v>
       </c>
-      <c r="G58" s="6">
+      <c r="H58" s="6">
         <v>14768</v>
       </c>
-      <c r="H58" s="6">
+      <c r="I58" s="6">
         <v>12226</v>
       </c>
-      <c r="I58" s="6">
+      <c r="J58" s="6">
         <v>903</v>
       </c>
-      <c r="J58" s="6">
+      <c r="K58" s="6">
         <v>19257</v>
       </c>
-      <c r="K58" s="6">
+      <c r="L58" s="6">
         <v>5575</v>
       </c>
-      <c r="L58" s="7">
+      <c r="M58" s="7">
         <v>24.56</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="6">
+        <v>139818</v>
+      </c>
+      <c r="C59" s="6">
         <v>6259</v>
       </c>
-      <c r="C59" s="6">
+      <c r="D59" s="6">
         <v>21573</v>
       </c>
-      <c r="D59" s="6">
+      <c r="E59" s="6">
         <v>8016</v>
       </c>
-      <c r="E59" s="6">
+      <c r="F59" s="6">
         <v>21917</v>
       </c>
-      <c r="F59" s="6">
+      <c r="G59" s="6">
         <v>2726</v>
       </c>
-      <c r="G59" s="6">
+      <c r="H59" s="6">
         <v>14811</v>
       </c>
-      <c r="H59" s="6">
+      <c r="I59" s="6">
         <v>12259</v>
       </c>
-      <c r="I59" s="6">
+      <c r="J59" s="6">
         <v>901</v>
       </c>
-      <c r="J59" s="6">
+      <c r="K59" s="6">
         <v>19285</v>
       </c>
-      <c r="K59" s="6">
+      <c r="L59" s="6">
         <v>5582</v>
       </c>
-      <c r="L59" s="7">
+      <c r="M59" s="7">
         <v>24.58</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="6">
+        <v>140109</v>
+      </c>
+      <c r="C60" s="6">
         <v>6272</v>
       </c>
-      <c r="C60" s="6">
+      <c r="D60" s="6">
         <v>21626</v>
       </c>
-      <c r="D60" s="6">
+      <c r="E60" s="6">
         <v>8034</v>
       </c>
-      <c r="E60" s="6">
+      <c r="F60" s="6">
         <v>21932</v>
       </c>
-      <c r="F60" s="6">
+      <c r="G60" s="6">
         <v>2735</v>
       </c>
-      <c r="G60" s="6">
+      <c r="H60" s="6">
         <v>14849</v>
       </c>
-      <c r="H60" s="6">
+      <c r="I60" s="6">
         <v>12284</v>
       </c>
-      <c r="I60" s="6">
+      <c r="J60" s="6">
         <v>900</v>
       </c>
-      <c r="J60" s="6">
+      <c r="K60" s="6">
         <v>19339</v>
       </c>
-      <c r="K60" s="6">
+      <c r="L60" s="6">
         <v>5590</v>
       </c>
-      <c r="L60" s="7">
+      <c r="M60" s="7">
         <v>24.65</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="6">
+        <v>140377</v>
+      </c>
+      <c r="C61" s="6">
         <v>6293</v>
       </c>
-      <c r="C61" s="6">
+      <c r="D61" s="6">
         <v>21678</v>
       </c>
-      <c r="D61" s="6">
+      <c r="E61" s="6">
         <v>8041</v>
       </c>
-      <c r="E61" s="6">
+      <c r="F61" s="6">
         <v>21947</v>
       </c>
-      <c r="F61" s="6">
+      <c r="G61" s="6">
         <v>2735</v>
       </c>
-      <c r="G61" s="6">
+      <c r="H61" s="6">
         <v>14892</v>
       </c>
-      <c r="H61" s="6">
+      <c r="I61" s="6">
         <v>12292</v>
       </c>
-      <c r="I61" s="6">
+      <c r="J61" s="6">
         <v>896</v>
       </c>
-      <c r="J61" s="6">
+      <c r="K61" s="6">
         <v>19418</v>
       </c>
-      <c r="K61" s="6">
+      <c r="L61" s="6">
         <v>5592</v>
       </c>
-      <c r="L61" s="7">
+      <c r="M61" s="7">
         <v>24.65</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="6">
+        <v>140568</v>
+      </c>
+      <c r="C62" s="6">
         <v>6320</v>
       </c>
-      <c r="C62" s="6">
+      <c r="D62" s="6">
         <v>21741</v>
       </c>
-      <c r="D62" s="6">
+      <c r="E62" s="6">
         <v>8059</v>
       </c>
-      <c r="E62" s="6">
+      <c r="F62" s="6">
         <v>21960</v>
       </c>
-      <c r="F62" s="6">
+      <c r="G62" s="6">
         <v>2738</v>
       </c>
-      <c r="G62" s="6">
+      <c r="H62" s="6">
         <v>14915</v>
       </c>
-      <c r="H62" s="6">
+      <c r="I62" s="6">
         <v>12292</v>
       </c>
-      <c r="I62" s="6">
+      <c r="J62" s="6">
         <v>888</v>
       </c>
-      <c r="J62" s="6">
+      <c r="K62" s="6">
         <v>19442</v>
       </c>
-      <c r="K62" s="6">
+      <c r="L62" s="6">
         <v>5600</v>
       </c>
-      <c r="L62" s="7">
+      <c r="M62" s="7">
         <v>24.73</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="6">
+        <v>140839</v>
+      </c>
+      <c r="C63" s="6">
         <v>6361</v>
       </c>
-      <c r="C63" s="6">
+      <c r="D63" s="6">
         <v>21789</v>
       </c>
-      <c r="D63" s="6">
+      <c r="E63" s="6">
         <v>8072</v>
       </c>
-      <c r="E63" s="6">
+      <c r="F63" s="6">
         <v>21978</v>
       </c>
-      <c r="F63" s="6">
+      <c r="G63" s="6">
         <v>2742</v>
       </c>
-      <c r="G63" s="6">
+      <c r="H63" s="6">
         <v>14972</v>
       </c>
-      <c r="H63" s="6">
+      <c r="I63" s="6">
         <v>12301</v>
       </c>
-      <c r="I63" s="6">
+      <c r="J63" s="6">
         <v>875</v>
       </c>
-      <c r="J63" s="6">
+      <c r="K63" s="6">
         <v>19487</v>
       </c>
-      <c r="K63" s="6">
+      <c r="L63" s="6">
         <v>5605</v>
       </c>
-      <c r="L63" s="7">
+      <c r="M63" s="7">
         <v>24.78</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="6">
+        <v>140910</v>
+      </c>
+      <c r="C64" s="6">
         <v>6334</v>
       </c>
-      <c r="C64" s="6">
+      <c r="D64" s="6">
         <v>21832</v>
       </c>
-      <c r="D64" s="6">
+      <c r="E64" s="6">
         <v>8081</v>
       </c>
-      <c r="E64" s="6">
+      <c r="F64" s="6">
         <v>21970</v>
       </c>
-      <c r="F64" s="6">
+      <c r="G64" s="6">
         <v>2737</v>
       </c>
-      <c r="G64" s="6">
+      <c r="H64" s="6">
         <v>14981</v>
       </c>
-      <c r="H64" s="6">
+      <c r="I64" s="6">
         <v>12312</v>
       </c>
-      <c r="I64" s="6">
+      <c r="J64" s="6">
         <v>859</v>
       </c>
-      <c r="J64" s="6">
+      <c r="K64" s="6">
         <v>19513</v>
       </c>
-      <c r="K64" s="6">
+      <c r="L64" s="6">
         <v>5607</v>
       </c>
-      <c r="L64" s="7">
+      <c r="M64" s="7">
         <v>24.84</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="6">
+        <v>141194</v>
+      </c>
+      <c r="C65" s="6">
         <v>6392</v>
       </c>
-      <c r="C65" s="6">
+      <c r="D65" s="6">
         <v>21906</v>
       </c>
-      <c r="D65" s="6">
+      <c r="E65" s="6">
         <v>8088</v>
       </c>
-      <c r="E65" s="6">
+      <c r="F65" s="6">
         <v>22005</v>
       </c>
-      <c r="F65" s="6">
+      <c r="G65" s="6">
         <v>2741</v>
       </c>
-      <c r="G65" s="6">
+      <c r="H65" s="6">
         <v>15023</v>
       </c>
-      <c r="H65" s="6">
+      <c r="I65" s="6">
         <v>12318</v>
       </c>
-      <c r="I65" s="6">
+      <c r="J65" s="6">
         <v>843</v>
       </c>
-      <c r="J65" s="6">
+      <c r="K65" s="6">
         <v>19557</v>
       </c>
-      <c r="K65" s="6">
+      <c r="L65" s="6">
         <v>5614</v>
       </c>
-      <c r="L65" s="7">
+      <c r="M65" s="7">
         <v>24.89</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="6">
+        <v>141525</v>
+      </c>
+      <c r="C66" s="6">
         <v>6427</v>
       </c>
-      <c r="C66" s="6">
+      <c r="D66" s="6">
         <v>21958</v>
       </c>
-      <c r="D66" s="6">
+      <c r="E66" s="6">
         <v>8095</v>
       </c>
-      <c r="E66" s="6">
+      <c r="F66" s="6">
         <v>22012</v>
       </c>
-      <c r="F66" s="6">
+      <c r="G66" s="6">
         <v>2749</v>
       </c>
-      <c r="G66" s="6">
+      <c r="H66" s="6">
         <v>15103</v>
       </c>
-      <c r="H66" s="6">
+      <c r="I66" s="6">
         <v>12333</v>
       </c>
-      <c r="I66" s="6">
+      <c r="J66" s="6">
         <v>820</v>
       </c>
-      <c r="J66" s="6">
+      <c r="K66" s="6">
         <v>19638</v>
       </c>
-      <c r="K66" s="6">
+      <c r="L66" s="6">
         <v>5623</v>
       </c>
-      <c r="L66" s="7">
+      <c r="M66" s="7">
         <v>24.96</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="6">
+        <v>141699</v>
+      </c>
+      <c r="C67" s="6">
         <v>6441</v>
       </c>
-      <c r="C67" s="6">
+      <c r="D67" s="6">
         <v>21998</v>
       </c>
-      <c r="D67" s="6">
+      <c r="E67" s="6">
         <v>8117</v>
       </c>
-      <c r="E67" s="6">
+      <c r="F67" s="6">
         <v>22015</v>
       </c>
-      <c r="F67" s="6">
+      <c r="G67" s="6">
         <v>2750</v>
       </c>
-      <c r="G67" s="6">
+      <c r="H67" s="6">
         <v>15108</v>
       </c>
-      <c r="H67" s="6">
+      <c r="I67" s="6">
         <v>12334</v>
       </c>
-      <c r="I67" s="6">
+      <c r="J67" s="6">
         <v>816</v>
       </c>
-      <c r="J67" s="6">
+      <c r="K67" s="6">
         <v>19689</v>
       </c>
-      <c r="K67" s="6">
+      <c r="L67" s="6">
         <v>5617</v>
       </c>
-      <c r="L67" s="7">
+      <c r="M67" s="7">
         <v>24.98</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="6">
+        <v>142001</v>
+      </c>
+      <c r="C68" s="6">
         <v>6472</v>
       </c>
-      <c r="C68" s="6">
+      <c r="D68" s="6">
         <v>22053</v>
       </c>
-      <c r="D68" s="6">
+      <c r="E68" s="6">
         <v>8137</v>
       </c>
-      <c r="E68" s="6">
+      <c r="F68" s="6">
         <v>22050</v>
       </c>
-      <c r="F68" s="6">
+      <c r="G68" s="6">
         <v>2753</v>
       </c>
-      <c r="G68" s="6">
+      <c r="H68" s="6">
         <v>15168</v>
       </c>
-      <c r="H68" s="6">
+      <c r="I68" s="6">
         <v>12349</v>
       </c>
-      <c r="I68" s="6">
+      <c r="J68" s="6">
         <v>805</v>
       </c>
-      <c r="J68" s="6">
+      <c r="K68" s="6">
         <v>19726</v>
       </c>
-      <c r="K68" s="6">
+      <c r="L68" s="6">
         <v>5629</v>
       </c>
-      <c r="L68" s="7">
+      <c r="M68" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="6">
+        <v>142126</v>
+      </c>
+      <c r="C69" s="6">
         <v>6490</v>
       </c>
-      <c r="C69" s="6">
+      <c r="D69" s="6">
         <v>22094</v>
       </c>
-      <c r="D69" s="6">
+      <c r="E69" s="6">
         <v>8143</v>
       </c>
-      <c r="E69" s="6">
+      <c r="F69" s="6">
         <v>22060</v>
       </c>
-      <c r="F69" s="6">
+      <c r="G69" s="6">
         <v>2754</v>
       </c>
-      <c r="G69" s="6">
+      <c r="H69" s="6">
         <v>15201</v>
       </c>
-      <c r="H69" s="6">
+      <c r="I69" s="6">
         <v>12345</v>
       </c>
-      <c r="I69" s="6">
+      <c r="J69" s="6">
         <v>794</v>
       </c>
-      <c r="J69" s="6">
+      <c r="K69" s="6">
         <v>19755</v>
       </c>
-      <c r="K69" s="6">
+      <c r="L69" s="6">
         <v>5620</v>
       </c>
-      <c r="L69" s="7">
+      <c r="M69" s="7">
         <v>25.1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="6">
+        <v>142281</v>
+      </c>
+      <c r="C70" s="6">
         <v>6508</v>
       </c>
-      <c r="C70" s="6">
+      <c r="D70" s="6">
         <v>22131</v>
       </c>
-      <c r="D70" s="6">
+      <c r="E70" s="6">
         <v>8153</v>
       </c>
-      <c r="E70" s="6">
+      <c r="F70" s="6">
         <v>22040</v>
       </c>
-      <c r="F70" s="6">
+      <c r="G70" s="6">
         <v>2764</v>
       </c>
-      <c r="G70" s="6">
+      <c r="H70" s="6">
         <v>15279</v>
       </c>
-      <c r="H70" s="6">
+      <c r="I70" s="6">
         <v>12354</v>
       </c>
-      <c r="I70" s="6">
+      <c r="J70" s="6">
         <v>779</v>
       </c>
-      <c r="J70" s="6">
+      <c r="K70" s="6">
         <v>19778</v>
       </c>
-      <c r="K70" s="6">
+      <c r="L70" s="6">
         <v>5621</v>
       </c>
-      <c r="L70" s="7">
+      <c r="M70" s="7">
         <v>25.11</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="6">
+        <v>142587</v>
+      </c>
+      <c r="C71" s="6">
         <v>6547</v>
       </c>
-      <c r="C71" s="6">
+      <c r="D71" s="6">
         <v>22215</v>
       </c>
-      <c r="D71" s="6">
+      <c r="E71" s="6">
         <v>8168</v>
       </c>
-      <c r="E71" s="6">
+      <c r="F71" s="6">
         <v>22056</v>
       </c>
-      <c r="F71" s="6">
+      <c r="G71" s="6">
         <v>2763</v>
       </c>
-      <c r="G71" s="6">
+      <c r="H71" s="6">
         <v>15316</v>
       </c>
-      <c r="H71" s="6">
+      <c r="I71" s="6">
         <v>12362</v>
       </c>
-      <c r="I71" s="6">
+      <c r="J71" s="6">
         <v>771</v>
       </c>
-      <c r="J71" s="6">
+      <c r="K71" s="6">
         <v>19851</v>
       </c>
-      <c r="K71" s="6">
+      <c r="L71" s="6">
         <v>5630</v>
       </c>
-      <c r="L71" s="7">
+      <c r="M71" s="7">
         <v>25.19</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="6">
+        <v>142824</v>
+      </c>
+      <c r="C72" s="6">
         <v>6598</v>
       </c>
-      <c r="C72" s="6">
+      <c r="D72" s="6">
         <v>22260</v>
       </c>
-      <c r="D72" s="6">
+      <c r="E72" s="6">
         <v>8180</v>
       </c>
-      <c r="E72" s="6">
+      <c r="F72" s="6">
         <v>22081</v>
       </c>
-      <c r="F72" s="6">
+      <c r="G72" s="6">
         <v>2750</v>
       </c>
-      <c r="G72" s="6">
+      <c r="H72" s="6">
         <v>15374</v>
       </c>
-      <c r="H72" s="6">
+      <c r="I72" s="6">
         <v>12357</v>
       </c>
-      <c r="I72" s="6">
+      <c r="J72" s="6">
         <v>756</v>
       </c>
-      <c r="J72" s="6">
+      <c r="K72" s="6">
         <v>19885</v>
       </c>
-      <c r="K72" s="6">
+      <c r="L72" s="6">
         <v>5638</v>
       </c>
-      <c r="L72" s="7">
+      <c r="M72" s="7">
         <v>25.24</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="6">
+        <v>143097</v>
+      </c>
+      <c r="C73" s="6">
         <v>6630</v>
       </c>
-      <c r="C73" s="6">
+      <c r="D73" s="6">
         <v>22323</v>
       </c>
-      <c r="D73" s="6">
+      <c r="E73" s="6">
         <v>8188</v>
       </c>
-      <c r="E73" s="6">
+      <c r="F73" s="6">
         <v>22097</v>
       </c>
-      <c r="F73" s="6">
+      <c r="G73" s="6">
         <v>2759</v>
       </c>
-      <c r="G73" s="6">
+      <c r="H73" s="6">
         <v>15406</v>
       </c>
-      <c r="H73" s="6">
+      <c r="I73" s="6">
         <v>12362</v>
       </c>
-      <c r="I73" s="6">
+      <c r="J73" s="6">
         <v>746</v>
       </c>
-      <c r="J73" s="6">
+      <c r="K73" s="6">
         <v>19955</v>
       </c>
-      <c r="K73" s="6">
+      <c r="L73" s="6">
         <v>5653</v>
       </c>
-      <c r="L73" s="7">
+      <c r="M73" s="7">
         <v>25.27</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="6">
+        <v>143170</v>
+      </c>
+      <c r="C74" s="6">
         <v>6620</v>
       </c>
-      <c r="C74" s="6">
+      <c r="D74" s="6">
         <v>22337</v>
       </c>
-      <c r="D74" s="6">
+      <c r="E74" s="6">
         <v>8203</v>
       </c>
-      <c r="E74" s="6">
+      <c r="F74" s="6">
         <v>22118</v>
       </c>
-      <c r="F74" s="6">
+      <c r="G74" s="6">
         <v>2763</v>
       </c>
-      <c r="G74" s="6">
+      <c r="H74" s="6">
         <v>15441</v>
       </c>
-      <c r="H74" s="6">
+      <c r="I74" s="6">
         <v>12379</v>
       </c>
-      <c r="I74" s="6">
+      <c r="J74" s="6">
         <v>731</v>
       </c>
-      <c r="J74" s="6">
+      <c r="K74" s="6">
         <v>19953</v>
       </c>
-      <c r="K74" s="6">
+      <c r="L74" s="6">
         <v>5649</v>
       </c>
-      <c r="L74" s="7">
+      <c r="M74" s="7">
         <v>25.36</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="6">
+        <v>143433</v>
+      </c>
+      <c r="C75" s="6">
         <v>6650</v>
       </c>
-      <c r="C75" s="6">
+      <c r="D75" s="6">
         <v>22405</v>
       </c>
-      <c r="D75" s="6">
+      <c r="E75" s="6">
         <v>8211</v>
       </c>
-      <c r="E75" s="6">
+      <c r="F75" s="6">
         <v>22144</v>
       </c>
-      <c r="F75" s="6">
+      <c r="G75" s="6">
         <v>2778</v>
       </c>
-      <c r="G75" s="6">
+      <c r="H75" s="6">
         <v>15497</v>
       </c>
-      <c r="H75" s="6">
+      <c r="I75" s="6">
         <v>12367</v>
       </c>
-      <c r="I75" s="6">
+      <c r="J75" s="6">
         <v>711</v>
       </c>
-      <c r="J75" s="6">
+      <c r="K75" s="6">
         <v>19968</v>
       </c>
-      <c r="K75" s="6">
+      <c r="L75" s="6">
         <v>5666</v>
       </c>
-      <c r="L75" s="7">
+      <c r="M75" s="7">
         <v>25.38</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="6">
+        <v>143662</v>
+      </c>
+      <c r="C76" s="6">
         <v>6680</v>
       </c>
-      <c r="C76" s="6">
+      <c r="D76" s="6">
         <v>22452</v>
       </c>
-      <c r="D76" s="6">
+      <c r="E76" s="6">
         <v>8226</v>
       </c>
-      <c r="E76" s="6">
+      <c r="F76" s="6">
         <v>22180</v>
       </c>
-      <c r="F76" s="6">
+      <c r="G76" s="6">
         <v>2785</v>
       </c>
-      <c r="G76" s="6">
+      <c r="H76" s="6">
         <v>15538</v>
       </c>
-      <c r="H76" s="6">
+      <c r="I76" s="6">
         <v>12345</v>
       </c>
-      <c r="I76" s="6">
+      <c r="J76" s="6">
         <v>691</v>
       </c>
-      <c r="J76" s="6">
+      <c r="K76" s="6">
         <v>19998</v>
       </c>
-      <c r="K76" s="6">
+      <c r="L76" s="6">
         <v>5674</v>
       </c>
-      <c r="L76" s="7">
+      <c r="M76" s="7">
         <v>25.45</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="6">
+        <v>143849</v>
+      </c>
+      <c r="C77" s="6">
         <v>6701</v>
       </c>
-      <c r="C77" s="6">
+      <c r="D77" s="6">
         <v>22510</v>
       </c>
-      <c r="D77" s="6">
+      <c r="E77" s="6">
         <v>8249</v>
       </c>
-      <c r="E77" s="6">
+      <c r="F77" s="6">
         <v>22186</v>
       </c>
-      <c r="F77" s="6">
+      <c r="G77" s="6">
         <v>2789</v>
       </c>
-      <c r="G77" s="6">
+      <c r="H77" s="6">
         <v>15561</v>
       </c>
-      <c r="H77" s="6">
+      <c r="I77" s="6">
         <v>12349</v>
       </c>
-      <c r="I77" s="6">
+      <c r="J77" s="6">
         <v>678</v>
       </c>
-      <c r="J77" s="6">
+      <c r="K77" s="6">
         <v>20030</v>
       </c>
-      <c r="K77" s="6">
+      <c r="L77" s="6">
         <v>5678</v>
       </c>
-      <c r="L77" s="7">
+      <c r="M77" s="7">
         <v>25.53</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="6">
+        <v>143891</v>
+      </c>
+      <c r="C78" s="6">
         <v>6691</v>
       </c>
-      <c r="C78" s="6">
+      <c r="D78" s="6">
         <v>22567</v>
       </c>
-      <c r="D78" s="6">
+      <c r="E78" s="6">
         <v>8263</v>
       </c>
-      <c r="E78" s="6">
+      <c r="F78" s="6">
         <v>22197</v>
       </c>
-      <c r="F78" s="6">
+      <c r="G78" s="6">
         <v>2753</v>
       </c>
-      <c r="G78" s="6">
+      <c r="H78" s="6">
         <v>15582</v>
       </c>
-      <c r="H78" s="6">
+      <c r="I78" s="6">
         <v>12332</v>
       </c>
-      <c r="I78" s="6">
+      <c r="J78" s="6">
         <v>666</v>
       </c>
-      <c r="J78" s="6">
+      <c r="K78" s="6">
         <v>20038</v>
       </c>
-      <c r="K78" s="6">
+      <c r="L78" s="6">
         <v>5670</v>
       </c>
-      <c r="L78" s="7">
+      <c r="M78" s="7">
         <v>25.58</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="6">
+        <v>144158</v>
+      </c>
+      <c r="C79" s="6">
         <v>6702</v>
       </c>
-      <c r="C79" s="6">
+      <c r="D79" s="6">
         <v>22624</v>
       </c>
-      <c r="D79" s="6">
+      <c r="E79" s="6">
         <v>8280</v>
       </c>
-      <c r="E79" s="6">
+      <c r="F79" s="6">
         <v>22184</v>
       </c>
-      <c r="F79" s="6">
+      <c r="G79" s="6">
         <v>2798</v>
       </c>
-      <c r="G79" s="6">
+      <c r="H79" s="6">
         <v>15637</v>
       </c>
-      <c r="H79" s="6">
+      <c r="I79" s="6">
         <v>12351</v>
       </c>
-      <c r="I79" s="6">
+      <c r="J79" s="6">
         <v>656</v>
       </c>
-      <c r="J79" s="6">
+      <c r="K79" s="6">
         <v>20081</v>
       </c>
-      <c r="K79" s="6">
+      <c r="L79" s="6">
         <v>5681</v>
       </c>
-      <c r="L79" s="7">
+      <c r="M79" s="7">
         <v>25.63</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="6">
+        <v>144512</v>
+      </c>
+      <c r="C80" s="6">
         <v>6736</v>
       </c>
-      <c r="C80" s="6">
+      <c r="D80" s="6">
         <v>22668</v>
       </c>
-      <c r="D80" s="6">
+      <c r="E80" s="6">
         <v>8302</v>
       </c>
-      <c r="E80" s="6">
+      <c r="F80" s="6">
         <v>22285</v>
       </c>
-      <c r="F80" s="6">
+      <c r="G80" s="6">
         <v>2799</v>
       </c>
-      <c r="G80" s="6">
+      <c r="H80" s="6">
         <v>15684</v>
       </c>
-      <c r="H80" s="6">
+      <c r="I80" s="6">
         <v>12369</v>
       </c>
-      <c r="I80" s="6">
+      <c r="J80" s="6">
         <v>652</v>
       </c>
-      <c r="J80" s="6">
+      <c r="K80" s="6">
         <v>20125</v>
       </c>
-      <c r="K80" s="6">
+      <c r="L80" s="6">
         <v>5687</v>
       </c>
-      <c r="L80" s="7">
+      <c r="M80" s="7">
         <v>25.7</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="6">
+        <v>144647</v>
+      </c>
+      <c r="C81" s="6">
         <v>6737</v>
       </c>
-      <c r="C81" s="6">
+      <c r="D81" s="6">
         <v>22714</v>
       </c>
-      <c r="D81" s="6">
+      <c r="E81" s="6">
         <v>8317</v>
       </c>
-      <c r="E81" s="6">
+      <c r="F81" s="6">
         <v>22268</v>
       </c>
-      <c r="F81" s="6">
+      <c r="G81" s="6">
         <v>2805</v>
       </c>
-      <c r="G81" s="6">
+      <c r="H81" s="6">
         <v>15724</v>
       </c>
-      <c r="H81" s="6">
+      <c r="I81" s="6">
         <v>12348</v>
       </c>
-      <c r="I81" s="6">
+      <c r="J81" s="6">
         <v>647</v>
       </c>
-      <c r="J81" s="6">
+      <c r="K81" s="6">
         <v>20131</v>
       </c>
-      <c r="K81" s="6">
+      <c r="L81" s="6">
         <v>5702</v>
       </c>
-      <c r="L81" s="7">
+      <c r="M81" s="7">
         <v>25.72</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="6">
+        <v>144916</v>
+      </c>
+      <c r="C82" s="6">
         <v>6768</v>
       </c>
-      <c r="C82" s="6">
+      <c r="D82" s="6">
         <v>22773</v>
       </c>
-      <c r="D82" s="6">
+      <c r="E82" s="6">
         <v>8325</v>
       </c>
-      <c r="E82" s="6">
+      <c r="F82" s="6">
         <v>22303</v>
       </c>
-      <c r="F82" s="6">
+      <c r="G82" s="6">
         <v>2812</v>
       </c>
-      <c r="G82" s="6">
+      <c r="H82" s="6">
         <v>15761</v>
       </c>
-      <c r="H82" s="6">
+      <c r="I82" s="6">
         <v>12347</v>
       </c>
-      <c r="I82" s="6">
+      <c r="J82" s="6">
         <v>647</v>
       </c>
-      <c r="J82" s="6">
+      <c r="K82" s="6">
         <v>20198</v>
       </c>
-      <c r="K82" s="6">
+      <c r="L82" s="6">
         <v>5713</v>
       </c>
-      <c r="L82" s="7">
+      <c r="M82" s="7">
         <v>25.77</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="6">
+        <v>145061</v>
+      </c>
+      <c r="C83" s="6">
         <v>6798</v>
       </c>
-      <c r="C83" s="6">
+      <c r="D83" s="6">
         <v>22834</v>
       </c>
-      <c r="D83" s="6">
+      <c r="E83" s="6">
         <v>8331</v>
       </c>
-      <c r="E83" s="6">
+      <c r="F83" s="6">
         <v>22292</v>
       </c>
-      <c r="F83" s="6">
+      <c r="G83" s="6">
         <v>2814</v>
       </c>
-      <c r="G83" s="6">
+      <c r="H83" s="6">
         <v>15779</v>
       </c>
-      <c r="H83" s="6">
+      <c r="I83" s="6">
         <v>12347</v>
       </c>
-      <c r="I83" s="6">
+      <c r="J83" s="6">
         <v>644</v>
       </c>
-      <c r="J83" s="6">
+      <c r="K83" s="6">
         <v>20216</v>
       </c>
-      <c r="K83" s="6">
+      <c r="L83" s="6">
         <v>5718</v>
       </c>
-      <c r="L83" s="7">
+      <c r="M83" s="7">
         <v>25.88</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="6">
+        <v>145212</v>
+      </c>
+      <c r="C84" s="6">
         <v>6819</v>
       </c>
-      <c r="C84" s="6">
+      <c r="D84" s="6">
         <v>22868</v>
       </c>
-      <c r="D84" s="6">
+      <c r="E84" s="6">
         <v>8342</v>
       </c>
-      <c r="E84" s="6">
+      <c r="F84" s="6">
         <v>22290</v>
       </c>
-      <c r="F84" s="6">
+      <c r="G84" s="6">
         <v>2809</v>
       </c>
-      <c r="G84" s="6">
+      <c r="H84" s="6">
         <v>15829</v>
       </c>
-      <c r="H84" s="6">
+      <c r="I84" s="6">
         <v>12342</v>
       </c>
-      <c r="I84" s="6">
+      <c r="J84" s="6">
         <v>647</v>
       </c>
-      <c r="J84" s="6">
+      <c r="K84" s="6">
         <v>20253</v>
       </c>
-      <c r="K84" s="6">
+      <c r="L84" s="6">
         <v>5729</v>
       </c>
-      <c r="L84" s="7">
+      <c r="M84" s="7">
         <v>25.91</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="6">
+        <v>145442</v>
+      </c>
+      <c r="C85" s="6">
         <v>6821</v>
       </c>
-      <c r="C85" s="6">
+      <c r="D85" s="6">
         <v>22929</v>
       </c>
-      <c r="D85" s="6">
+      <c r="E85" s="6">
         <v>8369</v>
       </c>
-      <c r="E85" s="6">
+      <c r="F85" s="6">
         <v>22308</v>
       </c>
-      <c r="F85" s="6">
+      <c r="G85" s="6">
         <v>2812</v>
       </c>
-      <c r="G85" s="6">
+      <c r="H85" s="6">
         <v>15846</v>
       </c>
-      <c r="H85" s="6">
+      <c r="I85" s="6">
         <v>12356</v>
       </c>
-      <c r="I85" s="6">
+      <c r="J85" s="6">
         <v>648</v>
       </c>
-      <c r="J85" s="6">
+      <c r="K85" s="6">
         <v>20288</v>
       </c>
-      <c r="K85" s="6">
+      <c r="L85" s="6">
         <v>5715</v>
       </c>
-      <c r="L85" s="7">
+      <c r="M85" s="7">
         <v>25.94</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="6">
+        <v>145627</v>
+      </c>
+      <c r="C86" s="6">
         <v>6847</v>
       </c>
-      <c r="C86" s="6">
+      <c r="D86" s="6">
         <v>22938</v>
       </c>
-      <c r="D86" s="6">
+      <c r="E86" s="6">
         <v>8399</v>
       </c>
-      <c r="E86" s="6">
+      <c r="F86" s="6">
         <v>22302</v>
       </c>
-      <c r="F86" s="6">
+      <c r="G86" s="6">
         <v>2819</v>
       </c>
-      <c r="G86" s="6">
+      <c r="H86" s="6">
         <v>15878</v>
       </c>
-      <c r="H86" s="6">
+      <c r="I86" s="6">
         <v>12369</v>
       </c>
-      <c r="I86" s="6">
+      <c r="J86" s="6">
         <v>649</v>
       </c>
-      <c r="J86" s="6">
+      <c r="K86" s="6">
         <v>20338</v>
       </c>
-      <c r="K86" s="6">
+      <c r="L86" s="6">
         <v>5731</v>
       </c>
-      <c r="L86" s="7">
+      <c r="M86" s="7">
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="6">
+        <v>145815</v>
+      </c>
+      <c r="C87" s="6">
         <v>6889</v>
       </c>
-      <c r="C87" s="6">
+      <c r="D87" s="6">
         <v>23012</v>
       </c>
-      <c r="D87" s="6">
+      <c r="E87" s="6">
         <v>8401</v>
       </c>
-      <c r="E87" s="6">
+      <c r="F87" s="6">
         <v>22319</v>
       </c>
-      <c r="F87" s="6">
+      <c r="G87" s="6">
         <v>2814</v>
       </c>
-      <c r="G87" s="6">
+      <c r="H87" s="6">
         <v>15910</v>
       </c>
-      <c r="H87" s="6">
+      <c r="I87" s="6">
         <v>12384</v>
       </c>
-      <c r="I87" s="6">
+      <c r="J87" s="6">
         <v>655</v>
       </c>
-      <c r="J87" s="6">
+      <c r="K87" s="6">
         <v>20347</v>
       </c>
-      <c r="K87" s="6">
+      <c r="L87" s="6">
         <v>5742</v>
       </c>
-      <c r="L87" s="7">
+      <c r="M87" s="7">
         <v>26.08</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="6">
+        <v>145944</v>
+      </c>
+      <c r="C88" s="6">
         <v>6909</v>
       </c>
-      <c r="C88" s="6">
+      <c r="D88" s="6">
         <v>23051</v>
       </c>
-      <c r="D88" s="6">
+      <c r="E88" s="6">
         <v>8409</v>
       </c>
-      <c r="E88" s="6">
+      <c r="F88" s="6">
         <v>22325</v>
       </c>
-      <c r="F88" s="6">
+      <c r="G88" s="6">
         <v>2813</v>
       </c>
-      <c r="G88" s="6">
+      <c r="H88" s="6">
         <v>15922</v>
       </c>
-      <c r="H88" s="6">
+      <c r="I88" s="6">
         <v>12395</v>
       </c>
-      <c r="I88" s="6">
+      <c r="J88" s="6">
         <v>660</v>
       </c>
-      <c r="J88" s="6">
+      <c r="K88" s="6">
         <v>20376</v>
       </c>
-      <c r="K88" s="6">
+      <c r="L88" s="6">
         <v>5745</v>
       </c>
-      <c r="L88" s="7">
+      <c r="M88" s="7">
         <v>26.11</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="6">
+        <v>146141</v>
+      </c>
+      <c r="C89" s="6">
         <v>6916</v>
       </c>
-      <c r="C89" s="6">
+      <c r="D89" s="6">
         <v>23101</v>
       </c>
-      <c r="D89" s="6">
+      <c r="E89" s="6">
         <v>8424</v>
       </c>
-      <c r="E89" s="6">
+      <c r="F89" s="6">
         <v>22330</v>
       </c>
-      <c r="F89" s="6">
+      <c r="G89" s="6">
         <v>2809</v>
       </c>
-      <c r="G89" s="6">
+      <c r="H89" s="6">
         <v>15986</v>
       </c>
-      <c r="H89" s="6">
+      <c r="I89" s="6">
         <v>12400</v>
       </c>
-      <c r="I89" s="6">
+      <c r="J89" s="6">
         <v>669</v>
       </c>
-      <c r="J89" s="6">
+      <c r="K89" s="6">
         <v>20406</v>
       </c>
-      <c r="K89" s="6">
+      <c r="L89" s="6">
         <v>5748</v>
       </c>
-      <c r="L89" s="7">
+      <c r="M89" s="7">
         <v>26.17</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="6">
+        <v>146296</v>
+      </c>
+      <c r="C90" s="6">
         <v>6928</v>
       </c>
-      <c r="C90" s="6">
+      <c r="D90" s="6">
         <v>23139</v>
       </c>
-      <c r="D90" s="6">
+      <c r="E90" s="6">
         <v>8432</v>
       </c>
-      <c r="E90" s="6">
+      <c r="F90" s="6">
         <v>22332</v>
       </c>
-      <c r="F90" s="6">
+      <c r="G90" s="6">
         <v>2804</v>
       </c>
-      <c r="G90" s="6">
+      <c r="H90" s="6">
         <v>16021</v>
       </c>
-      <c r="H90" s="6">
+      <c r="I90" s="6">
         <v>12406</v>
       </c>
-      <c r="I90" s="6">
+      <c r="J90" s="6">
         <v>673</v>
       </c>
-      <c r="J90" s="6">
+      <c r="K90" s="6">
         <v>20463</v>
       </c>
-      <c r="K90" s="6">
+      <c r="L90" s="6">
         <v>5759</v>
       </c>
-      <c r="L90" s="7">
+      <c r="M90" s="7">
         <v>26.21</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="6">
+        <v>146512</v>
+      </c>
+      <c r="C91" s="6">
         <v>6955</v>
       </c>
-      <c r="C91" s="6">
+      <c r="D91" s="6">
         <v>23167</v>
       </c>
-      <c r="D91" s="6">
+      <c r="E91" s="6">
         <v>8448</v>
       </c>
-      <c r="E91" s="6">
+      <c r="F91" s="6">
         <v>22346</v>
       </c>
-      <c r="F91" s="6">
+      <c r="G91" s="6">
         <v>2807</v>
       </c>
-      <c r="G91" s="6">
+      <c r="H91" s="6">
         <v>16063</v>
       </c>
-      <c r="H91" s="6">
+      <c r="I91" s="6">
         <v>12418</v>
       </c>
-      <c r="I91" s="6">
+      <c r="J91" s="6">
         <v>677</v>
       </c>
-      <c r="J91" s="6">
+      <c r="K91" s="6">
         <v>20498</v>
       </c>
-      <c r="K91" s="6">
+      <c r="L91" s="6">
         <v>5767</v>
       </c>
-      <c r="L91" s="7">
+      <c r="M91" s="7">
         <v>26.27</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="6">
+        <v>146727</v>
+      </c>
+      <c r="C92" s="6">
         <v>6960</v>
       </c>
-      <c r="C92" s="6">
+      <c r="D92" s="6">
         <v>23227</v>
       </c>
-      <c r="D92" s="6">
+      <c r="E92" s="6">
         <v>8460</v>
       </c>
-      <c r="E92" s="6">
+      <c r="F92" s="6">
         <v>22359</v>
       </c>
-      <c r="F92" s="6">
+      <c r="G92" s="6">
         <v>2809</v>
       </c>
-      <c r="G92" s="6">
+      <c r="H92" s="6">
         <v>16134</v>
       </c>
-      <c r="H92" s="6">
+      <c r="I92" s="6">
         <v>12417</v>
       </c>
-      <c r="I92" s="6">
+      <c r="J92" s="6">
         <v>679</v>
       </c>
-      <c r="J92" s="6">
+      <c r="K92" s="6">
         <v>20540</v>
       </c>
-      <c r="K92" s="6">
+      <c r="L92" s="6">
         <v>5774</v>
       </c>
-      <c r="L92" s="7">
+      <c r="M92" s="7">
         <v>26.36</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B93" s="6">
+        <v>146911</v>
+      </c>
+      <c r="C93" s="6">
         <v>6990</v>
       </c>
-      <c r="C93" s="6">
+      <c r="D93" s="6">
         <v>23264</v>
       </c>
-      <c r="D93" s="6">
+      <c r="E93" s="6">
         <v>8469</v>
       </c>
-      <c r="E93" s="6">
+      <c r="F93" s="6">
         <v>22357</v>
       </c>
-      <c r="F93" s="6">
+      <c r="G93" s="6">
         <v>2815</v>
       </c>
-      <c r="G93" s="6">
+      <c r="H93" s="6">
         <v>16138</v>
       </c>
-      <c r="H93" s="6">
+      <c r="I93" s="6">
         <v>12461</v>
       </c>
-      <c r="I93" s="6">
+      <c r="J93" s="6">
         <v>684</v>
       </c>
-      <c r="J93" s="6">
+      <c r="K93" s="6">
         <v>20568</v>
       </c>
-      <c r="K93" s="6">
+      <c r="L93" s="6">
         <v>5780</v>
       </c>
-      <c r="L93" s="7">
+      <c r="M93" s="7">
         <v>26.38</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="6">
+        <v>146929</v>
+      </c>
+      <c r="C94" s="6">
         <v>7004</v>
       </c>
-      <c r="C94" s="6">
+      <c r="D94" s="6">
         <v>23295</v>
       </c>
-      <c r="D94" s="6">
+      <c r="E94" s="6">
         <v>8477</v>
       </c>
-      <c r="E94" s="6">
+      <c r="F94" s="6">
         <v>22366</v>
       </c>
-      <c r="F94" s="6">
+      <c r="G94" s="6">
         <v>2811</v>
       </c>
-      <c r="G94" s="6">
+      <c r="H94" s="6">
         <v>16065</v>
       </c>
-      <c r="H94" s="6">
+      <c r="I94" s="6">
         <v>12470</v>
       </c>
-      <c r="I94" s="6">
+      <c r="J94" s="6">
         <v>687</v>
       </c>
-      <c r="J94" s="6">
+      <c r="K94" s="6">
         <v>20571</v>
       </c>
-      <c r="K94" s="6">
+      <c r="L94" s="6">
         <v>5773</v>
       </c>
-      <c r="L94" s="7">
+      <c r="M94" s="7">
         <v>26.51</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B95" s="6">
+        <v>147196</v>
+      </c>
+      <c r="C95" s="6">
         <v>7027</v>
       </c>
-      <c r="C95" s="6">
+      <c r="D95" s="6">
         <v>23322</v>
       </c>
-      <c r="D95" s="6">
+      <c r="E95" s="6">
         <v>8482</v>
       </c>
-      <c r="E95" s="6">
+      <c r="F95" s="6">
         <v>22369</v>
       </c>
-      <c r="F95" s="6">
+      <c r="G95" s="6">
         <v>2812</v>
       </c>
-      <c r="G95" s="6">
+      <c r="H95" s="6">
         <v>16156</v>
       </c>
-      <c r="H95" s="6">
+      <c r="I95" s="6">
         <v>12492</v>
       </c>
-      <c r="I95" s="6">
+      <c r="J95" s="6">
         <v>687</v>
       </c>
-      <c r="J95" s="6">
+      <c r="K95" s="6">
         <v>20619</v>
       </c>
-      <c r="K95" s="6">
+      <c r="L95" s="6">
         <v>5795</v>
       </c>
-      <c r="L95" s="7">
+      <c r="M95" s="7">
         <v>26.48</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="6">
+        <v>147421</v>
+      </c>
+      <c r="C96" s="6">
         <v>7066</v>
       </c>
-      <c r="C96" s="6">
+      <c r="D96" s="6">
         <v>23374</v>
       </c>
-      <c r="D96" s="6">
+      <c r="E96" s="6">
         <v>8494</v>
       </c>
-      <c r="E96" s="6">
+      <c r="F96" s="6">
         <v>22393</v>
       </c>
-      <c r="F96" s="6">
+      <c r="G96" s="6">
         <v>2813</v>
       </c>
-      <c r="G96" s="6">
+      <c r="H96" s="6">
         <v>16170</v>
       </c>
-      <c r="H96" s="6">
+      <c r="I96" s="6">
         <v>12514</v>
       </c>
-      <c r="I96" s="6">
+      <c r="J96" s="6">
         <v>693</v>
       </c>
-      <c r="J96" s="6">
+      <c r="K96" s="6">
         <v>20649</v>
       </c>
-      <c r="K96" s="6">
+      <c r="L96" s="6">
         <v>5806</v>
       </c>
-      <c r="L96" s="7">
+      <c r="M96" s="7">
         <v>26.55</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B97" s="6">
+        <v>147551</v>
+      </c>
+      <c r="C97" s="6">
         <v>7093</v>
       </c>
-      <c r="C97" s="6">
+      <c r="D97" s="6">
         <v>23383</v>
       </c>
-      <c r="D97" s="6">
+      <c r="E97" s="6">
         <v>8498</v>
       </c>
-      <c r="E97" s="6">
+      <c r="F97" s="6">
         <v>22381</v>
       </c>
-      <c r="F97" s="6">
+      <c r="G97" s="6">
         <v>2819</v>
       </c>
-      <c r="G97" s="6">
+      <c r="H97" s="6">
         <v>16190</v>
       </c>
-      <c r="H97" s="6">
+      <c r="I97" s="6">
         <v>12541</v>
       </c>
-      <c r="I97" s="6">
+      <c r="J97" s="6">
         <v>692</v>
       </c>
-      <c r="J97" s="6">
+      <c r="K97" s="6">
         <v>20683</v>
       </c>
-      <c r="K97" s="6">
+      <c r="L97" s="6">
         <v>5806</v>
       </c>
-      <c r="L97" s="7">
+      <c r="M97" s="7">
         <v>26.64</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B98" s="6">
+        <v>147672</v>
+      </c>
+      <c r="C98" s="6">
         <v>7114</v>
       </c>
-      <c r="C98" s="6">
+      <c r="D98" s="6">
         <v>23437</v>
       </c>
-      <c r="D98" s="6">
+      <c r="E98" s="6">
         <v>8504</v>
       </c>
-      <c r="E98" s="6">
+      <c r="F98" s="6">
         <v>22355</v>
       </c>
-      <c r="F98" s="6">
+      <c r="G98" s="6">
         <v>2815</v>
       </c>
-      <c r="G98" s="6">
+      <c r="H98" s="6">
         <v>16193</v>
       </c>
-      <c r="H98" s="6">
+      <c r="I98" s="6">
         <v>12558</v>
       </c>
-      <c r="I98" s="6">
+      <c r="J98" s="6">
         <v>699</v>
       </c>
-      <c r="J98" s="6">
+      <c r="K98" s="6">
         <v>20738</v>
       </c>
-      <c r="K98" s="6">
+      <c r="L98" s="6">
         <v>5811</v>
       </c>
-      <c r="L98" s="7">
+      <c r="M98" s="7">
         <v>26.71</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="6">
+        <v>148078</v>
+      </c>
+      <c r="C99" s="6">
         <v>7200</v>
       </c>
-      <c r="C99" s="6">
+      <c r="D99" s="6">
         <v>23491</v>
       </c>
-      <c r="D99" s="6">
+      <c r="E99" s="6">
         <v>8533</v>
       </c>
-      <c r="E99" s="6">
+      <c r="F99" s="6">
         <v>22406</v>
       </c>
-      <c r="F99" s="6">
+      <c r="G99" s="6">
         <v>2815</v>
       </c>
-      <c r="G99" s="6">
+      <c r="H99" s="6">
         <v>16218</v>
       </c>
-      <c r="H99" s="6">
+      <c r="I99" s="6">
         <v>12588</v>
       </c>
-      <c r="I99" s="6">
+      <c r="J99" s="6">
         <v>706</v>
       </c>
-      <c r="J99" s="6">
+      <c r="K99" s="6">
         <v>20781</v>
       </c>
-      <c r="K99" s="6">
+      <c r="L99" s="6">
         <v>5815</v>
       </c>
-      <c r="L99" s="7">
+      <c r="M99" s="7">
         <v>26.75</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B100" s="6">
+        <v>148254</v>
+      </c>
+      <c r="C100" s="6">
         <v>7205</v>
       </c>
-      <c r="C100" s="6">
+      <c r="D100" s="6">
         <v>23523</v>
       </c>
-      <c r="D100" s="6">
+      <c r="E100" s="6">
         <v>8538</v>
       </c>
-      <c r="E100" s="6">
+      <c r="F100" s="6">
         <v>22404</v>
       </c>
-      <c r="F100" s="6">
+      <c r="G100" s="6">
         <v>2826</v>
       </c>
-      <c r="G100" s="6">
+      <c r="H100" s="6">
         <v>16220</v>
       </c>
-      <c r="H100" s="6">
+      <c r="I100" s="6">
         <v>12611</v>
       </c>
-      <c r="I100" s="6">
+      <c r="J100" s="6">
         <v>714</v>
       </c>
-      <c r="J100" s="6">
+      <c r="K100" s="6">
         <v>20823</v>
       </c>
-      <c r="K100" s="6">
+      <c r="L100" s="6">
         <v>5812</v>
       </c>
-      <c r="L100" s="7">
+      <c r="M100" s="7">
         <v>26.84</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B101" s="6">
+        <v>148391</v>
+      </c>
+      <c r="C101" s="6">
         <v>7223</v>
       </c>
-      <c r="C101" s="6">
+      <c r="D101" s="6">
         <v>23538</v>
       </c>
-      <c r="D101" s="6">
+      <c r="E101" s="6">
         <v>8545</v>
       </c>
-      <c r="E101" s="6">
+      <c r="F101" s="6">
         <v>22414</v>
       </c>
-      <c r="F101" s="6">
+      <c r="G101" s="6">
         <v>2839</v>
       </c>
-      <c r="G101" s="6">
+      <c r="H101" s="6">
         <v>16217</v>
       </c>
-      <c r="H101" s="6">
+      <c r="I101" s="6">
         <v>12632</v>
       </c>
-      <c r="I101" s="6">
+      <c r="J101" s="6">
         <v>722</v>
       </c>
-      <c r="J101" s="6">
+      <c r="K101" s="6">
         <v>20868</v>
       </c>
-      <c r="K101" s="6">
+      <c r="L101" s="6">
         <v>5819</v>
       </c>
-      <c r="L101" s="7">
+      <c r="M101" s="7">
         <v>26.91</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B102" s="6">
+        <v>148669</v>
+      </c>
+      <c r="C102" s="6">
         <v>7266</v>
       </c>
-      <c r="C102" s="6">
+      <c r="D102" s="6">
         <v>23576</v>
       </c>
-      <c r="D102" s="6">
+      <c r="E102" s="6">
         <v>8567</v>
       </c>
-      <c r="E102" s="6">
+      <c r="F102" s="6">
         <v>22431</v>
       </c>
-      <c r="F102" s="6">
+      <c r="G102" s="6">
         <v>2837</v>
       </c>
-      <c r="G102" s="6">
+      <c r="H102" s="6">
         <v>16263</v>
       </c>
-      <c r="H102" s="6">
+      <c r="I102" s="6">
         <v>12658</v>
       </c>
-      <c r="I102" s="6">
+      <c r="J102" s="6">
         <v>724</v>
       </c>
-      <c r="J102" s="6">
+      <c r="K102" s="6">
         <v>20914</v>
       </c>
-      <c r="K102" s="6">
+      <c r="L102" s="6">
         <v>5831</v>
       </c>
-      <c r="L102" s="7">
+      <c r="M102" s="7">
         <v>26.98</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B103" s="6">
+        <v>148888</v>
+      </c>
+      <c r="C103" s="6">
         <v>7282</v>
       </c>
-      <c r="C103" s="6">
+      <c r="D103" s="6">
         <v>23617</v>
       </c>
-      <c r="D103" s="6">
+      <c r="E103" s="6">
         <v>8586</v>
       </c>
-      <c r="E103" s="6">
+      <c r="F103" s="6">
         <v>22459</v>
       </c>
-      <c r="F103" s="6">
+      <c r="G103" s="6">
         <v>2837</v>
       </c>
-      <c r="G103" s="6">
+      <c r="H103" s="6">
         <v>16310</v>
       </c>
-      <c r="H103" s="6">
+      <c r="I103" s="6">
         <v>12687</v>
       </c>
-      <c r="I103" s="6">
+      <c r="J103" s="6">
         <v>729</v>
       </c>
-      <c r="J103" s="6">
+      <c r="K103" s="6">
         <v>20948</v>
       </c>
-      <c r="K103" s="6">
+      <c r="L103" s="6">
         <v>5844</v>
       </c>
-      <c r="L103" s="7">
+      <c r="M103" s="7">
         <v>27.04</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B104" s="6">
+        <v>149024</v>
+      </c>
+      <c r="C104" s="6">
         <v>7304</v>
       </c>
-      <c r="C104" s="6">
+      <c r="D104" s="6">
         <v>23644</v>
       </c>
-      <c r="D104" s="6">
+      <c r="E104" s="6">
         <v>8594</v>
       </c>
-      <c r="E104" s="6">
+      <c r="F104" s="6">
         <v>22462</v>
       </c>
-      <c r="F104" s="6">
+      <c r="G104" s="6">
         <v>2841</v>
       </c>
-      <c r="G104" s="6">
+      <c r="H104" s="6">
         <v>16349</v>
       </c>
-      <c r="H104" s="6">
+      <c r="I104" s="6">
         <v>12706</v>
       </c>
-      <c r="I104" s="6">
+      <c r="J104" s="6">
         <v>729</v>
       </c>
-      <c r="J104" s="6">
+      <c r="K104" s="6">
         <v>20968</v>
       </c>
-      <c r="K104" s="6">
+      <c r="L104" s="6">
         <v>5829</v>
       </c>
-      <c r="L104" s="7">
+      <c r="M104" s="7">
         <v>27.11</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B105" s="6">
+        <v>149268</v>
+      </c>
+      <c r="C105" s="6">
         <v>7335</v>
       </c>
-      <c r="C105" s="6">
+      <c r="D105" s="6">
         <v>23691</v>
       </c>
-      <c r="D105" s="6">
+      <c r="E105" s="6">
         <v>8607</v>
       </c>
-      <c r="E105" s="6">
+      <c r="F105" s="6">
         <v>22490</v>
       </c>
-      <c r="F105" s="6">
+      <c r="G105" s="6">
         <v>2841</v>
       </c>
-      <c r="G105" s="6">
+      <c r="H105" s="6">
         <v>16350</v>
       </c>
-      <c r="H105" s="6">
+      <c r="I105" s="6">
         <v>12719</v>
       </c>
-      <c r="I105" s="6">
+      <c r="J105" s="6">
         <v>737</v>
       </c>
-      <c r="J105" s="6">
+      <c r="K105" s="6">
         <v>21009</v>
       </c>
-      <c r="K105" s="6">
+      <c r="L105" s="6">
         <v>5832</v>
       </c>
-      <c r="L105" s="7">
+      <c r="M105" s="7">
         <v>27.22</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B106" s="6">
+        <v>149348</v>
+      </c>
+      <c r="C106" s="6">
         <v>7355</v>
       </c>
-      <c r="C106" s="6">
+      <c r="D106" s="6">
         <v>23716</v>
       </c>
-      <c r="D106" s="6">
+      <c r="E106" s="6">
         <v>8629</v>
       </c>
-      <c r="E106" s="6">
+      <c r="F106" s="6">
         <v>22489</v>
       </c>
-      <c r="F106" s="6">
+      <c r="G106" s="6">
         <v>2839</v>
       </c>
-      <c r="G106" s="6">
+      <c r="H106" s="6">
         <v>16326</v>
       </c>
-      <c r="H106" s="6">
+      <c r="I106" s="6">
         <v>12740</v>
       </c>
-      <c r="I106" s="6">
+      <c r="J106" s="6">
         <v>739</v>
       </c>
-      <c r="J106" s="6">
+      <c r="K106" s="6">
         <v>21042</v>
       </c>
-      <c r="K106" s="6">
+      <c r="L106" s="6">
         <v>5837</v>
       </c>
-      <c r="L106" s="7">
+      <c r="M106" s="7">
         <v>27.31</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B107" s="6">
+        <v>149549</v>
+      </c>
+      <c r="C107" s="6">
         <v>7378</v>
       </c>
-      <c r="C107" s="6">
+      <c r="D107" s="6">
         <v>23767</v>
       </c>
-      <c r="D107" s="6">
+      <c r="E107" s="6">
         <v>8647</v>
       </c>
-      <c r="E107" s="6">
+      <c r="F107" s="6">
         <v>22485</v>
       </c>
-      <c r="F107" s="6">
+      <c r="G107" s="6">
         <v>2851</v>
       </c>
-      <c r="G107" s="6">
+      <c r="H107" s="6">
         <v>16358</v>
       </c>
-      <c r="H107" s="6">
+      <c r="I107" s="6">
         <v>12764</v>
       </c>
-      <c r="I107" s="6">
+      <c r="J107" s="6">
         <v>742</v>
       </c>
-      <c r="J107" s="6">
+      <c r="K107" s="6">
         <v>21079</v>
       </c>
-      <c r="K107" s="6">
+      <c r="L107" s="6">
         <v>5845</v>
       </c>
-      <c r="L107" s="7">
+      <c r="M107" s="7">
         <v>27.36</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B108" s="6">
+        <v>149683</v>
+      </c>
+      <c r="C108" s="6">
         <v>7376</v>
       </c>
-      <c r="C108" s="6">
+      <c r="D108" s="6">
         <v>23790</v>
       </c>
-      <c r="D108" s="6">
+      <c r="E108" s="6">
         <v>8657</v>
       </c>
-      <c r="E108" s="6">
+      <c r="F108" s="6">
         <v>22486</v>
       </c>
-      <c r="F108" s="6">
+      <c r="G108" s="6">
         <v>2850</v>
       </c>
-      <c r="G108" s="6">
+      <c r="H108" s="6">
         <v>16368</v>
       </c>
-      <c r="H108" s="6">
+      <c r="I108" s="6">
         <v>12784</v>
       </c>
-      <c r="I108" s="6">
+      <c r="J108" s="6">
         <v>737</v>
       </c>
-      <c r="J108" s="6">
+      <c r="K108" s="6">
         <v>21102</v>
       </c>
-      <c r="K108" s="6">
+      <c r="L108" s="6">
         <v>5842</v>
       </c>
-      <c r="L108" s="7">
+      <c r="M108" s="7">
         <v>27.44</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B109" s="6">
+        <v>149865</v>
+      </c>
+      <c r="C109" s="6">
         <v>7402</v>
       </c>
-      <c r="C109" s="6">
+      <c r="D109" s="6">
         <v>23844</v>
       </c>
-      <c r="D109" s="6">
+      <c r="E109" s="6">
         <v>8665</v>
       </c>
-      <c r="E109" s="6">
+      <c r="F109" s="6">
         <v>22495</v>
       </c>
-      <c r="F109" s="6">
+      <c r="G109" s="6">
         <v>2854</v>
       </c>
-      <c r="G109" s="6">
+      <c r="H109" s="6">
         <v>16415</v>
       </c>
-      <c r="H109" s="6">
+      <c r="I109" s="6">
         <v>12805</v>
       </c>
-      <c r="I109" s="6">
+      <c r="J109" s="6">
         <v>741</v>
       </c>
-      <c r="J109" s="6">
+      <c r="K109" s="6">
         <v>21128</v>
       </c>
-      <c r="K109" s="6">
+      <c r="L109" s="6">
         <v>5850</v>
       </c>
-      <c r="L109" s="7">
+      <c r="M109" s="7">
         <v>27.54</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B110" s="6">
+        <v>150134</v>
+      </c>
+      <c r="C110" s="6">
         <v>7452</v>
       </c>
-      <c r="C110" s="6">
+      <c r="D110" s="6">
         <v>23900</v>
       </c>
-      <c r="D110" s="6">
+      <c r="E110" s="6">
         <v>8676</v>
       </c>
-      <c r="E110" s="6">
+      <c r="F110" s="6">
         <v>22506</v>
       </c>
-      <c r="F110" s="6">
+      <c r="G110" s="6">
         <v>2843</v>
       </c>
-      <c r="G110" s="6">
+      <c r="H110" s="6">
         <v>16496</v>
       </c>
-      <c r="H110" s="6">
+      <c r="I110" s="6">
         <v>12825</v>
       </c>
-      <c r="I110" s="6">
+      <c r="J110" s="6">
         <v>746</v>
       </c>
-      <c r="J110" s="6">
+      <c r="K110" s="6">
         <v>21126</v>
       </c>
-      <c r="K110" s="6">
+      <c r="L110" s="6">
         <v>5853</v>
       </c>
-      <c r="L110" s="7">
+      <c r="M110" s="7">
         <v>27.58</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B111" s="6">
+        <v>150135</v>
+      </c>
+      <c r="C111" s="6">
         <v>7423</v>
       </c>
-      <c r="C111" s="6">
+      <c r="D111" s="6">
         <v>23918</v>
       </c>
-      <c r="D111" s="6">
+      <c r="E111" s="6">
         <v>8690</v>
       </c>
-      <c r="E111" s="6">
+      <c r="F111" s="6">
         <v>22513</v>
       </c>
-      <c r="F111" s="6">
+      <c r="G111" s="6">
         <v>2841</v>
       </c>
-      <c r="G111" s="6">
+      <c r="H111" s="6">
         <v>16473</v>
       </c>
-      <c r="H111" s="6">
+      <c r="I111" s="6">
         <v>12830</v>
       </c>
-      <c r="I111" s="6">
+      <c r="J111" s="6">
         <v>741</v>
       </c>
-      <c r="J111" s="6">
+      <c r="K111" s="6">
         <v>21164</v>
       </c>
-      <c r="K111" s="6">
+      <c r="L111" s="6">
         <v>5854</v>
       </c>
-      <c r="L111" s="7">
+      <c r="M111" s="7">
         <v>27.69</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="6">
+        <v>150282</v>
+      </c>
+      <c r="C112" s="6">
         <v>7443</v>
       </c>
-      <c r="C112" s="6">
+      <c r="D112" s="6">
         <v>23981</v>
       </c>
-      <c r="D112" s="6">
+      <c r="E112" s="6">
         <v>8707</v>
       </c>
-      <c r="E112" s="6">
+      <c r="F112" s="6">
         <v>22528</v>
       </c>
-      <c r="F112" s="6">
+      <c r="G112" s="6">
         <v>2851</v>
       </c>
-      <c r="G112" s="6">
+      <c r="H112" s="6">
         <v>16494</v>
       </c>
-      <c r="H112" s="6">
+      <c r="I112" s="6">
         <v>12827</v>
       </c>
-      <c r="I112" s="6">
+      <c r="J112" s="6">
         <v>741</v>
       </c>
-      <c r="J112" s="6">
+      <c r="K112" s="6">
         <v>21176</v>
       </c>
-      <c r="K112" s="6">
+      <c r="L112" s="6">
         <v>5869</v>
       </c>
-      <c r="L112" s="7">
+      <c r="M112" s="7">
         <v>27.76</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B113" s="6">
+        <v>150492</v>
+      </c>
+      <c r="C113" s="6">
         <v>7469</v>
       </c>
-      <c r="C113" s="6">
+      <c r="D113" s="6">
         <v>24046</v>
       </c>
-      <c r="D113" s="6">
+      <c r="E113" s="6">
         <v>8721</v>
       </c>
-      <c r="E113" s="6">
+      <c r="F113" s="6">
         <v>22553</v>
       </c>
-      <c r="F113" s="6">
+      <c r="G113" s="6">
         <v>2845</v>
       </c>
-      <c r="G113" s="6">
+      <c r="H113" s="6">
         <v>16507</v>
       </c>
-      <c r="H113" s="6">
+      <c r="I113" s="6">
         <v>12829</v>
       </c>
-      <c r="I113" s="6">
+      <c r="J113" s="6">
         <v>741</v>
       </c>
-      <c r="J113" s="6">
+      <c r="K113" s="6">
         <v>21226</v>
       </c>
-      <c r="K113" s="6">
+      <c r="L113" s="6">
         <v>5884</v>
       </c>
-      <c r="L113" s="7">
+      <c r="M113" s="7">
         <v>27.81</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B114" s="6">
+        <v>150577</v>
+      </c>
+      <c r="C114" s="6">
         <v>7478</v>
       </c>
-      <c r="C114" s="6">
+      <c r="D114" s="6">
         <v>24076</v>
       </c>
-      <c r="D114" s="6">
+      <c r="E114" s="6">
         <v>8727</v>
       </c>
-      <c r="E114" s="6">
+      <c r="F114" s="6">
         <v>22551</v>
       </c>
-      <c r="F114" s="6">
+      <c r="G114" s="6">
         <v>2853</v>
       </c>
-      <c r="G114" s="6">
+      <c r="H114" s="6">
         <v>16519</v>
       </c>
-      <c r="H114" s="6">
+      <c r="I114" s="6">
         <v>12829</v>
       </c>
-      <c r="I114" s="6">
+      <c r="J114" s="6">
         <v>743</v>
       </c>
-      <c r="J114" s="6">
+      <c r="K114" s="6">
         <v>21253</v>
       </c>
-      <c r="K114" s="6">
+      <c r="L114" s="6">
         <v>5881</v>
       </c>
-      <c r="L114" s="7">
+      <c r="M114" s="7">
         <v>27.87</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B115" s="6">
+        <v>150759</v>
+      </c>
+      <c r="C115" s="6">
         <v>7497</v>
       </c>
-      <c r="C115" s="6">
+      <c r="D115" s="6">
         <v>24131</v>
       </c>
-      <c r="D115" s="6">
+      <c r="E115" s="6">
         <v>8732</v>
       </c>
-      <c r="E115" s="6">
+      <c r="F115" s="6">
         <v>22553</v>
       </c>
-      <c r="F115" s="6">
+      <c r="G115" s="6">
         <v>2865</v>
       </c>
-      <c r="G115" s="6">
+      <c r="H115" s="6">
         <v>16526</v>
       </c>
-      <c r="H115" s="6">
+      <c r="I115" s="6">
         <v>12838</v>
       </c>
-      <c r="I115" s="6">
+      <c r="J115" s="6">
         <v>741</v>
       </c>
-      <c r="J115" s="6">
+      <c r="K115" s="6">
         <v>21294</v>
       </c>
-      <c r="K115" s="6">
+      <c r="L115" s="6">
         <v>5896</v>
       </c>
-      <c r="L115" s="7">
+      <c r="M115" s="7">
         <v>27.96</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="6">
+        <v>150953</v>
+      </c>
+      <c r="C116" s="6">
         <v>7504</v>
       </c>
-      <c r="C116" s="6">
+      <c r="D116" s="6">
         <v>24204</v>
       </c>
-      <c r="D116" s="6">
+      <c r="E116" s="6">
         <v>8753</v>
       </c>
-      <c r="E116" s="6">
+      <c r="F116" s="6">
         <v>22587</v>
       </c>
-      <c r="F116" s="6">
+      <c r="G116" s="6">
         <v>2862</v>
       </c>
-      <c r="G116" s="6">
+      <c r="H116" s="6">
         <v>16528</v>
       </c>
-      <c r="H116" s="6">
+      <c r="I116" s="6">
         <v>12845</v>
       </c>
-      <c r="I116" s="6">
+      <c r="J116" s="6">
         <v>736</v>
       </c>
-      <c r="J116" s="6">
+      <c r="K116" s="6">
         <v>21337</v>
       </c>
-      <c r="K116" s="6">
+      <c r="L116" s="6">
         <v>5905</v>
       </c>
-      <c r="L116" s="7">
+      <c r="M116" s="7">
         <v>28.05</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B117" s="6">
+        <v>151160</v>
+      </c>
+      <c r="C117" s="6">
         <v>7508</v>
       </c>
-      <c r="C117" s="6">
+      <c r="D117" s="6">
         <v>24262</v>
       </c>
-      <c r="D117" s="6">
+      <c r="E117" s="6">
         <v>8768</v>
       </c>
-      <c r="E117" s="6">
+      <c r="F117" s="6">
         <v>22637</v>
       </c>
-      <c r="F117" s="6">
+      <c r="G117" s="6">
         <v>2861</v>
       </c>
-      <c r="G117" s="6">
+      <c r="H117" s="6">
         <v>16570</v>
       </c>
-      <c r="H117" s="6">
+      <c r="I117" s="6">
         <v>12848</v>
       </c>
-      <c r="I117" s="6">
+      <c r="J117" s="6">
         <v>731</v>
       </c>
-      <c r="J117" s="6">
+      <c r="K117" s="6">
         <v>21377</v>
       </c>
-      <c r="K117" s="6">
+      <c r="L117" s="6">
         <v>5910</v>
       </c>
-      <c r="L117" s="7">
+      <c r="M117" s="7">
         <v>28.16</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B118" s="6">
+        <v>151368</v>
+      </c>
+      <c r="C118" s="6">
         <v>7524</v>
       </c>
-      <c r="C118" s="6">
+      <c r="D118" s="6">
         <v>24323</v>
       </c>
-      <c r="D118" s="6">
+      <c r="E118" s="6">
         <v>8771</v>
       </c>
-      <c r="E118" s="6">
+      <c r="F118" s="6">
         <v>22650</v>
       </c>
-      <c r="F118" s="6">
+      <c r="G118" s="6">
         <v>2866</v>
       </c>
-      <c r="G118" s="6">
+      <c r="H118" s="6">
         <v>16631</v>
       </c>
-      <c r="H118" s="6">
+      <c r="I118" s="6">
         <v>12851</v>
       </c>
-      <c r="I118" s="6">
+      <c r="J118" s="6">
         <v>731</v>
       </c>
-      <c r="J118" s="6">
+      <c r="K118" s="6">
         <v>21402</v>
       </c>
-      <c r="K118" s="6">
+      <c r="L118" s="6">
         <v>5907</v>
       </c>
-      <c r="L118" s="7">
+      <c r="M118" s="7">
         <v>28.16</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B119" s="6">
+        <v>151553</v>
+      </c>
+      <c r="C119" s="6">
         <v>7541</v>
       </c>
-      <c r="C119" s="6">
+      <c r="D119" s="6">
         <v>24363</v>
       </c>
-      <c r="D119" s="6">
+      <c r="E119" s="6">
         <v>8792</v>
       </c>
-      <c r="E119" s="6">
+      <c r="F119" s="6">
         <v>22645</v>
       </c>
-      <c r="F119" s="6">
+      <c r="G119" s="6">
         <v>2865</v>
       </c>
-      <c r="G119" s="6">
+      <c r="H119" s="6">
         <v>16701</v>
       </c>
-      <c r="H119" s="6">
+      <c r="I119" s="6">
         <v>12810</v>
       </c>
-      <c r="I119" s="6">
+      <c r="J119" s="6">
         <v>735</v>
       </c>
-      <c r="J119" s="6">
+      <c r="K119" s="6">
         <v>21444</v>
       </c>
-      <c r="K119" s="6">
+      <c r="L119" s="6">
         <v>5907</v>
       </c>
-      <c r="L119" s="7">
+      <c r="M119" s="7">
         <v>28.24</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="6">
+        <v>151814</v>
+      </c>
+      <c r="C120" s="6">
         <v>7539</v>
       </c>
-      <c r="C120" s="6">
+      <c r="D120" s="6">
         <v>24436</v>
       </c>
-      <c r="D120" s="6">
+      <c r="E120" s="6">
         <v>8804</v>
       </c>
-      <c r="E120" s="6">
+      <c r="F120" s="6">
         <v>22659</v>
       </c>
-      <c r="F120" s="6">
+      <c r="G120" s="6">
         <v>2874</v>
       </c>
-      <c r="G120" s="6">
+      <c r="H120" s="6">
         <v>16744</v>
       </c>
-      <c r="H120" s="6">
+      <c r="I120" s="6">
         <v>12868</v>
       </c>
-      <c r="I120" s="6">
+      <c r="J120" s="6">
         <v>724</v>
       </c>
-      <c r="J120" s="6">
+      <c r="K120" s="6">
         <v>21481</v>
       </c>
-      <c r="K120" s="6">
+      <c r="L120" s="6">
         <v>5923</v>
       </c>
-      <c r="L120" s="7">
+      <c r="M120" s="7">
         <v>28.34</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B121" s="6">
+        <v>151998</v>
+      </c>
+      <c r="C121" s="6">
         <v>7555</v>
       </c>
-      <c r="C121" s="6">
+      <c r="D121" s="6">
         <v>24465</v>
       </c>
-      <c r="D121" s="6">
+      <c r="E121" s="6">
         <v>8814</v>
       </c>
-      <c r="E121" s="6">
+      <c r="F121" s="6">
         <v>22679</v>
       </c>
-      <c r="F121" s="6">
+      <c r="G121" s="6">
         <v>2883</v>
       </c>
-      <c r="G121" s="6">
+      <c r="H121" s="6">
         <v>16784</v>
       </c>
-      <c r="H121" s="6">
+      <c r="I121" s="6">
         <v>12866</v>
       </c>
-      <c r="I121" s="6">
+      <c r="J121" s="6">
         <v>715</v>
       </c>
-      <c r="J121" s="6">
+      <c r="K121" s="6">
         <v>21503</v>
       </c>
-      <c r="K121" s="6">
+      <c r="L121" s="6">
         <v>5925</v>
       </c>
-      <c r="L121" s="7">
+      <c r="M121" s="7">
         <v>28.37</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B122" s="6">
+        <v>152212</v>
+      </c>
+      <c r="C122" s="6">
         <v>7593</v>
       </c>
-      <c r="C122" s="6">
+      <c r="D122" s="6">
         <v>24534</v>
       </c>
-      <c r="D122" s="6">
+      <c r="E122" s="6">
         <v>8823</v>
       </c>
-      <c r="E122" s="6">
+      <c r="F122" s="6">
         <v>22714</v>
       </c>
-      <c r="F122" s="6">
+      <c r="G122" s="6">
         <v>2894</v>
       </c>
-      <c r="G122" s="6">
+      <c r="H122" s="6">
         <v>16808</v>
       </c>
-      <c r="H122" s="6">
+      <c r="I122" s="6">
         <v>12844</v>
       </c>
-      <c r="I122" s="6">
+      <c r="J122" s="6">
         <v>712</v>
       </c>
-      <c r="J122" s="6">
+      <c r="K122" s="6">
         <v>21523</v>
       </c>
-      <c r="K122" s="6">
+      <c r="L122" s="6">
         <v>5935</v>
       </c>
-      <c r="L122" s="7">
+      <c r="M122" s="7">
         <v>28.43</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B123" s="6">
+        <v>152463</v>
+      </c>
+      <c r="C123" s="6">
         <v>7639</v>
       </c>
-      <c r="C123" s="6">
+      <c r="D123" s="6">
         <v>24586</v>
       </c>
-      <c r="D123" s="6">
+      <c r="E123" s="6">
         <v>8845</v>
       </c>
-      <c r="E123" s="6">
+      <c r="F123" s="6">
         <v>22745</v>
       </c>
-      <c r="F123" s="6">
+      <c r="G123" s="6">
         <v>2894</v>
       </c>
-      <c r="G123" s="6">
+      <c r="H123" s="6">
         <v>16867</v>
       </c>
-      <c r="H123" s="6">
+      <c r="I123" s="6">
         <v>12852</v>
       </c>
-      <c r="I123" s="6">
+      <c r="J123" s="6">
         <v>714</v>
       </c>
-      <c r="J123" s="6">
+      <c r="K123" s="6">
         <v>21550</v>
       </c>
-      <c r="K123" s="6">
+      <c r="L123" s="6">
         <v>5941</v>
       </c>
-      <c r="L123" s="7">
+      <c r="M123" s="7">
         <v>28.52</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="6">
+        <v>151090</v>
+      </c>
+      <c r="C124" s="6">
         <v>7574</v>
       </c>
-      <c r="C124" s="6">
+      <c r="D124" s="6">
         <v>24408</v>
       </c>
-      <c r="D124" s="6">
+      <c r="E124" s="6">
         <v>8827</v>
       </c>
-      <c r="E124" s="6">
+      <c r="F124" s="6">
         <v>22728</v>
       </c>
-      <c r="F124" s="6">
+      <c r="G124" s="6">
         <v>2888</v>
       </c>
-      <c r="G124" s="6">
+      <c r="H124" s="6">
         <v>16124</v>
       </c>
-      <c r="H124" s="6">
+      <c r="I124" s="6">
         <v>12806</v>
       </c>
-      <c r="I124" s="6">
+      <c r="J124" s="6">
         <v>706</v>
       </c>
-      <c r="J124" s="6">
+      <c r="K124" s="6">
         <v>21456</v>
       </c>
-      <c r="K124" s="6">
+      <c r="L124" s="6">
         <v>5850</v>
       </c>
-      <c r="L124" s="7">
+      <c r="M124" s="7">
         <v>28.69</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B125" s="6">
+        <v>130303</v>
+      </c>
+      <c r="C125" s="6">
         <v>6556</v>
       </c>
-      <c r="C125" s="6">
+      <c r="D125" s="6">
         <v>21805</v>
       </c>
-      <c r="D125" s="6">
+      <c r="E125" s="6">
         <v>8566</v>
       </c>
-      <c r="E125" s="6">
+      <c r="F125" s="6">
         <v>21776</v>
       </c>
-      <c r="F125" s="6">
+      <c r="G125" s="6">
         <v>2609</v>
       </c>
-      <c r="G125" s="6">
+      <c r="H125" s="6">
         <v>8549</v>
       </c>
-      <c r="H125" s="6">
+      <c r="I125" s="6">
         <v>11489</v>
       </c>
-      <c r="I125" s="6">
+      <c r="J125" s="6">
         <v>653</v>
       </c>
-      <c r="J125" s="6">
+      <c r="K125" s="6">
         <v>19254</v>
       </c>
-      <c r="K125" s="6">
+      <c r="L125" s="6">
         <v>4571</v>
       </c>
-      <c r="L125" s="7">
+      <c r="M125" s="7">
         <v>30.03</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B126" s="6">
+        <v>133002</v>
+      </c>
+      <c r="C126" s="6">
         <v>7009</v>
       </c>
-      <c r="C126" s="6">
+      <c r="D126" s="6">
         <v>22204</v>
       </c>
-      <c r="D126" s="6">
+      <c r="E126" s="6">
         <v>8576</v>
       </c>
-      <c r="E126" s="6">
+      <c r="F126" s="6">
         <v>21243</v>
       </c>
-      <c r="F126" s="6">
+      <c r="G126" s="6">
         <v>2570</v>
       </c>
-      <c r="G126" s="6">
+      <c r="H126" s="6">
         <v>9952</v>
       </c>
-      <c r="H126" s="6">
+      <c r="I126" s="6">
         <v>11739</v>
       </c>
-      <c r="I126" s="6">
+      <c r="J126" s="6">
         <v>634</v>
       </c>
-      <c r="J126" s="6">
+      <c r="K126" s="6">
         <v>19414</v>
       </c>
-      <c r="K126" s="6">
+      <c r="L126" s="6">
         <v>4832</v>
       </c>
-      <c r="L126" s="7">
+      <c r="M126" s="7">
         <v>29.72</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B127" s="6">
+        <v>137802</v>
+      </c>
+      <c r="C127" s="6">
         <v>7167</v>
       </c>
-      <c r="C127" s="6">
+      <c r="D127" s="6">
         <v>22772</v>
       </c>
-      <c r="D127" s="6">
+      <c r="E127" s="6">
         <v>8608</v>
       </c>
-      <c r="E127" s="6">
+      <c r="F127" s="6">
         <v>21276</v>
       </c>
-      <c r="F127" s="6">
+      <c r="G127" s="6">
         <v>2579</v>
       </c>
-      <c r="G127" s="6">
+      <c r="H127" s="6">
         <v>12040</v>
       </c>
-      <c r="H127" s="6">
+      <c r="I127" s="6">
         <v>12095</v>
       </c>
-      <c r="I127" s="6">
+      <c r="J127" s="6">
         <v>624</v>
       </c>
-      <c r="J127" s="6">
+      <c r="K127" s="6">
         <v>19720</v>
       </c>
-      <c r="K127" s="6">
+      <c r="L127" s="6">
         <v>5189</v>
       </c>
-      <c r="L127" s="7">
+      <c r="M127" s="7">
         <v>29.37</v>
       </c>
     </row>

--- a/datasets/employment/employment_stats_reformat.xlsx
+++ b/datasets/employment/employment_stats_reformat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wye\Documents\UIUC MCS\CS498\Create a narrative visualization\CS498NarrativeVisualization\datasets\employment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AFC840-33AF-48A2-AFC5-4BAB3019FD0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F10375-C991-4F07-95F2-6347E221FD69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="900" windowWidth="24900" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="24900" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,21 +225,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="M126" authorId="0" shapeId="0" xr:uid="{966D4B3E-7F2A-4DC4-8AA0-0320DF990B0C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  preliminary
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B127" authorId="0" shapeId="0" xr:uid="{6AF9C186-6D70-4E2B-96A6-B2965E47FFCE}">
       <text>
         <r>
@@ -405,27 +390,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="M127" authorId="0" shapeId="0" xr:uid="{0F473C2A-5C54-494E-B040-E41D7837EADB}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  preliminary
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>Jan-2010</t>
   </si>
@@ -836,9 +806,6 @@
   </si>
   <si>
     <t>Other services</t>
-  </si>
-  <si>
-    <t>Average hourly earnings of all employees, total private</t>
   </si>
   <si>
     <t>Total nonfarm</t>
@@ -848,9 +815,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#0"/>
-    <numFmt numFmtId="165" formatCode="#0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -915,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -933,9 +899,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1218,24 +1181,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="5" customWidth="1"/>
-    <col min="3" max="13" width="9.140625" style="3"/>
+    <col min="3" max="12" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>127</v>
@@ -1267,11 +1230,8 @@
       <c r="L1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1308,11 +1268,8 @@
       <c r="L2" s="6">
         <v>5323</v>
       </c>
-      <c r="M2" s="7">
-        <v>22.41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1349,11 +1306,8 @@
       <c r="L3" s="6">
         <v>5316</v>
       </c>
-      <c r="M3" s="7">
-        <v>22.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1390,11 +1344,8 @@
       <c r="L4" s="6">
         <v>5329</v>
       </c>
-      <c r="M4" s="7">
-        <v>22.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1431,11 +1382,8 @@
       <c r="L5" s="6">
         <v>5335</v>
       </c>
-      <c r="M5" s="7">
-        <v>22.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1472,11 +1420,8 @@
       <c r="L6" s="6">
         <v>5330</v>
       </c>
-      <c r="M6" s="7">
-        <v>22.53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1513,11 +1458,8 @@
       <c r="L7" s="6">
         <v>5315</v>
       </c>
-      <c r="M7" s="7">
-        <v>22.53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1554,11 +1496,8 @@
       <c r="L8" s="6">
         <v>5326</v>
       </c>
-      <c r="M8" s="7">
-        <v>22.59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1595,11 +1534,8 @@
       <c r="L9" s="6">
         <v>5323</v>
       </c>
-      <c r="M9" s="7">
-        <v>22.62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1636,11 +1572,8 @@
       <c r="L10" s="6">
         <v>5332</v>
       </c>
-      <c r="M10" s="7">
-        <v>22.67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1677,11 +1610,8 @@
       <c r="L11" s="6">
         <v>5357</v>
       </c>
-      <c r="M11" s="7">
-        <v>22.74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1718,11 +1648,8 @@
       <c r="L12" s="6">
         <v>5346</v>
       </c>
-      <c r="M12" s="7">
-        <v>22.73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1759,11 +1686,8 @@
       <c r="L13" s="6">
         <v>5337</v>
       </c>
-      <c r="M13" s="7">
-        <v>22.76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1800,11 +1724,8 @@
       <c r="L14" s="6">
         <v>5327</v>
       </c>
-      <c r="M14" s="7">
-        <v>22.85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1841,11 +1762,8 @@
       <c r="L15" s="6">
         <v>5337</v>
       </c>
-      <c r="M15" s="7">
-        <v>22.87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1882,11 +1800,8 @@
       <c r="L16" s="6">
         <v>5333</v>
       </c>
-      <c r="M16" s="7">
-        <v>22.87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1923,11 +1838,8 @@
       <c r="L17" s="6">
         <v>5342</v>
       </c>
-      <c r="M17" s="7">
-        <v>22.92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1964,11 +1876,8 @@
       <c r="L18" s="6">
         <v>5346</v>
       </c>
-      <c r="M18" s="7">
-        <v>22.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -2005,11 +1914,8 @@
       <c r="L19" s="6">
         <v>5352</v>
       </c>
-      <c r="M19" s="7">
-        <v>23.01</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -2046,11 +1952,8 @@
       <c r="L20" s="6">
         <v>5359</v>
       </c>
-      <c r="M20" s="7">
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -2087,11 +1990,8 @@
       <c r="L21" s="6">
         <v>5376</v>
       </c>
-      <c r="M21" s="7">
-        <v>23.07</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2128,11 +2028,8 @@
       <c r="L22" s="6">
         <v>5381</v>
       </c>
-      <c r="M22" s="7">
-        <v>23.11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -2169,11 +2066,8 @@
       <c r="L23" s="6">
         <v>5382</v>
       </c>
-      <c r="M23" s="7">
-        <v>23.21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2210,11 +2104,8 @@
       <c r="L24" s="6">
         <v>5390</v>
       </c>
-      <c r="M24" s="7">
-        <v>23.18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -2251,11 +2142,8 @@
       <c r="L25" s="6">
         <v>5403</v>
       </c>
-      <c r="M25" s="7">
-        <v>23.21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -2292,11 +2180,8 @@
       <c r="L26" s="6">
         <v>5414</v>
       </c>
-      <c r="M26" s="7">
-        <v>23.24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -2333,11 +2218,8 @@
       <c r="L27" s="6">
         <v>5415</v>
       </c>
-      <c r="M27" s="7">
-        <v>23.27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -2374,11 +2256,8 @@
       <c r="L28" s="6">
         <v>5422</v>
       </c>
-      <c r="M28" s="7">
-        <v>23.36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -2415,11 +2294,8 @@
       <c r="L29" s="6">
         <v>5417</v>
       </c>
-      <c r="M29" s="7">
-        <v>23.39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -2456,11 +2332,8 @@
       <c r="L30" s="6">
         <v>5417</v>
       </c>
-      <c r="M30" s="7">
-        <v>23.39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -2497,11 +2370,8 @@
       <c r="L31" s="6">
         <v>5424</v>
       </c>
-      <c r="M31" s="7">
-        <v>23.46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -2538,11 +2408,8 @@
       <c r="L32" s="6">
         <v>5433</v>
       </c>
-      <c r="M32" s="7">
-        <v>23.51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -2579,11 +2446,8 @@
       <c r="L33" s="6">
         <v>5431</v>
       </c>
-      <c r="M33" s="7">
-        <v>23.49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -2620,11 +2484,8 @@
       <c r="L34" s="6">
         <v>5442</v>
       </c>
-      <c r="M34" s="7">
-        <v>23.57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -2661,11 +2522,8 @@
       <c r="L35" s="6">
         <v>5446</v>
       </c>
-      <c r="M35" s="7">
-        <v>23.56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -2702,11 +2560,8 @@
       <c r="L36" s="6">
         <v>5449</v>
       </c>
-      <c r="M36" s="7">
-        <v>23.63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -2743,11 +2598,8 @@
       <c r="L37" s="6">
         <v>5452</v>
       </c>
-      <c r="M37" s="7">
-        <v>23.73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -2784,11 +2636,8 @@
       <c r="L38" s="6">
         <v>5458</v>
       </c>
-      <c r="M38" s="7">
-        <v>23.76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -2825,11 +2674,8 @@
       <c r="L39" s="6">
         <v>5456</v>
       </c>
-      <c r="M39" s="7">
-        <v>23.77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -2866,11 +2712,8 @@
       <c r="L40" s="6">
         <v>5451</v>
       </c>
-      <c r="M40" s="7">
-        <v>23.81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -2907,11 +2750,8 @@
       <c r="L41" s="6">
         <v>5455</v>
       </c>
-      <c r="M41" s="7">
-        <v>23.87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -2948,11 +2788,8 @@
       <c r="L42" s="6">
         <v>5470</v>
       </c>
-      <c r="M42" s="7">
-        <v>23.89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -2989,11 +2826,8 @@
       <c r="L43" s="6">
         <v>5480</v>
       </c>
-      <c r="M43" s="7">
-        <v>23.97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -3030,11 +2864,8 @@
       <c r="L44" s="6">
         <v>5483</v>
       </c>
-      <c r="M44" s="7">
-        <v>23.98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -3071,11 +2902,8 @@
       <c r="L45" s="6">
         <v>5494</v>
       </c>
-      <c r="M45" s="7">
-        <v>24.03</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -3112,11 +2940,8 @@
       <c r="L46" s="6">
         <v>5502</v>
       </c>
-      <c r="M46" s="7">
-        <v>24.06</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -3153,11 +2978,8 @@
       <c r="L47" s="6">
         <v>5509</v>
       </c>
-      <c r="M47" s="7">
-        <v>24.09</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -3194,11 +3016,8 @@
       <c r="L48" s="6">
         <v>5513</v>
       </c>
-      <c r="M48" s="7">
-        <v>24.16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -3235,11 +3054,8 @@
       <c r="L49" s="6">
         <v>5525</v>
       </c>
-      <c r="M49" s="7">
-        <v>24.17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -3276,11 +3092,8 @@
       <c r="L50" s="6">
         <v>5533</v>
       </c>
-      <c r="M50" s="7">
-        <v>24.21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -3317,11 +3130,8 @@
       <c r="L51" s="6">
         <v>5535</v>
       </c>
-      <c r="M51" s="7">
-        <v>24.32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -3358,11 +3168,8 @@
       <c r="L52" s="6">
         <v>5553</v>
       </c>
-      <c r="M52" s="7">
-        <v>24.31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -3399,11 +3206,8 @@
       <c r="L53" s="6">
         <v>5565</v>
       </c>
-      <c r="M53" s="7">
-        <v>24.34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -3440,11 +3244,8 @@
       <c r="L54" s="6">
         <v>5566</v>
       </c>
-      <c r="M54" s="7">
-        <v>24.4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -3481,11 +3282,8 @@
       <c r="L55" s="6">
         <v>5563</v>
       </c>
-      <c r="M55" s="7">
-        <v>24.44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -3522,11 +3320,8 @@
       <c r="L56" s="6">
         <v>5565</v>
       </c>
-      <c r="M56" s="7">
-        <v>24.48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
@@ -3563,11 +3358,8 @@
       <c r="L57" s="6">
         <v>5580</v>
       </c>
-      <c r="M57" s="7">
-        <v>24.55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
@@ -3604,11 +3396,8 @@
       <c r="L58" s="6">
         <v>5575</v>
       </c>
-      <c r="M58" s="7">
-        <v>24.56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
@@ -3645,11 +3434,8 @@
       <c r="L59" s="6">
         <v>5582</v>
       </c>
-      <c r="M59" s="7">
-        <v>24.58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
@@ -3686,11 +3472,8 @@
       <c r="L60" s="6">
         <v>5590</v>
       </c>
-      <c r="M60" s="7">
-        <v>24.65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
@@ -3727,11 +3510,8 @@
       <c r="L61" s="6">
         <v>5592</v>
       </c>
-      <c r="M61" s="7">
-        <v>24.65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
@@ -3768,11 +3548,8 @@
       <c r="L62" s="6">
         <v>5600</v>
       </c>
-      <c r="M62" s="7">
-        <v>24.73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -3809,11 +3586,8 @@
       <c r="L63" s="6">
         <v>5605</v>
       </c>
-      <c r="M63" s="7">
-        <v>24.78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
@@ -3850,11 +3624,8 @@
       <c r="L64" s="6">
         <v>5607</v>
       </c>
-      <c r="M64" s="7">
-        <v>24.84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
@@ -3891,11 +3662,8 @@
       <c r="L65" s="6">
         <v>5614</v>
       </c>
-      <c r="M65" s="7">
-        <v>24.89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
@@ -3932,11 +3700,8 @@
       <c r="L66" s="6">
         <v>5623</v>
       </c>
-      <c r="M66" s="7">
-        <v>24.96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
@@ -3973,11 +3738,8 @@
       <c r="L67" s="6">
         <v>5617</v>
       </c>
-      <c r="M67" s="7">
-        <v>24.98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
@@ -4014,11 +3776,8 @@
       <c r="L68" s="6">
         <v>5629</v>
       </c>
-      <c r="M68" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
@@ -4055,11 +3814,8 @@
       <c r="L69" s="6">
         <v>5620</v>
       </c>
-      <c r="M69" s="7">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
@@ -4096,11 +3852,8 @@
       <c r="L70" s="6">
         <v>5621</v>
       </c>
-      <c r="M70" s="7">
-        <v>25.11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
@@ -4137,11 +3890,8 @@
       <c r="L71" s="6">
         <v>5630</v>
       </c>
-      <c r="M71" s="7">
-        <v>25.19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
@@ -4178,11 +3928,8 @@
       <c r="L72" s="6">
         <v>5638</v>
       </c>
-      <c r="M72" s="7">
-        <v>25.24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
@@ -4219,11 +3966,8 @@
       <c r="L73" s="6">
         <v>5653</v>
       </c>
-      <c r="M73" s="7">
-        <v>25.27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
@@ -4260,11 +4004,8 @@
       <c r="L74" s="6">
         <v>5649</v>
       </c>
-      <c r="M74" s="7">
-        <v>25.36</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
@@ -4301,11 +4042,8 @@
       <c r="L75" s="6">
         <v>5666</v>
       </c>
-      <c r="M75" s="7">
-        <v>25.38</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
@@ -4342,11 +4080,8 @@
       <c r="L76" s="6">
         <v>5674</v>
       </c>
-      <c r="M76" s="7">
-        <v>25.45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
@@ -4383,11 +4118,8 @@
       <c r="L77" s="6">
         <v>5678</v>
       </c>
-      <c r="M77" s="7">
-        <v>25.53</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
@@ -4424,11 +4156,8 @@
       <c r="L78" s="6">
         <v>5670</v>
       </c>
-      <c r="M78" s="7">
-        <v>25.58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
@@ -4465,11 +4194,8 @@
       <c r="L79" s="6">
         <v>5681</v>
       </c>
-      <c r="M79" s="7">
-        <v>25.63</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
@@ -4506,11 +4232,8 @@
       <c r="L80" s="6">
         <v>5687</v>
       </c>
-      <c r="M80" s="7">
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
@@ -4547,11 +4270,8 @@
       <c r="L81" s="6">
         <v>5702</v>
       </c>
-      <c r="M81" s="7">
-        <v>25.72</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
@@ -4588,11 +4308,8 @@
       <c r="L82" s="6">
         <v>5713</v>
       </c>
-      <c r="M82" s="7">
-        <v>25.77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
@@ -4629,11 +4346,8 @@
       <c r="L83" s="6">
         <v>5718</v>
       </c>
-      <c r="M83" s="7">
-        <v>25.88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
@@ -4670,11 +4384,8 @@
       <c r="L84" s="6">
         <v>5729</v>
       </c>
-      <c r="M84" s="7">
-        <v>25.91</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
@@ -4711,11 +4422,8 @@
       <c r="L85" s="6">
         <v>5715</v>
       </c>
-      <c r="M85" s="7">
-        <v>25.94</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
@@ -4752,11 +4460,8 @@
       <c r="L86" s="6">
         <v>5731</v>
       </c>
-      <c r="M86" s="7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
@@ -4793,11 +4498,8 @@
       <c r="L87" s="6">
         <v>5742</v>
       </c>
-      <c r="M87" s="7">
-        <v>26.08</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
@@ -4834,11 +4536,8 @@
       <c r="L88" s="6">
         <v>5745</v>
       </c>
-      <c r="M88" s="7">
-        <v>26.11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
@@ -4875,11 +4574,8 @@
       <c r="L89" s="6">
         <v>5748</v>
       </c>
-      <c r="M89" s="7">
-        <v>26.17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>88</v>
       </c>
@@ -4916,11 +4612,8 @@
       <c r="L90" s="6">
         <v>5759</v>
       </c>
-      <c r="M90" s="7">
-        <v>26.21</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>89</v>
       </c>
@@ -4957,11 +4650,8 @@
       <c r="L91" s="6">
         <v>5767</v>
       </c>
-      <c r="M91" s="7">
-        <v>26.27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
@@ -4998,11 +4688,8 @@
       <c r="L92" s="6">
         <v>5774</v>
       </c>
-      <c r="M92" s="7">
-        <v>26.36</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>91</v>
       </c>
@@ -5039,11 +4726,8 @@
       <c r="L93" s="6">
         <v>5780</v>
       </c>
-      <c r="M93" s="7">
-        <v>26.38</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
@@ -5080,11 +4764,8 @@
       <c r="L94" s="6">
         <v>5773</v>
       </c>
-      <c r="M94" s="7">
-        <v>26.51</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
@@ -5121,11 +4802,8 @@
       <c r="L95" s="6">
         <v>5795</v>
       </c>
-      <c r="M95" s="7">
-        <v>26.48</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
@@ -5162,11 +4840,8 @@
       <c r="L96" s="6">
         <v>5806</v>
       </c>
-      <c r="M96" s="7">
-        <v>26.55</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
@@ -5203,11 +4878,8 @@
       <c r="L97" s="6">
         <v>5806</v>
       </c>
-      <c r="M97" s="7">
-        <v>26.64</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
@@ -5244,11 +4916,8 @@
       <c r="L98" s="6">
         <v>5811</v>
       </c>
-      <c r="M98" s="7">
-        <v>26.71</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>97</v>
       </c>
@@ -5285,11 +4954,8 @@
       <c r="L99" s="6">
         <v>5815</v>
       </c>
-      <c r="M99" s="7">
-        <v>26.75</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
@@ -5326,11 +4992,8 @@
       <c r="L100" s="6">
         <v>5812</v>
       </c>
-      <c r="M100" s="7">
-        <v>26.84</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>99</v>
       </c>
@@ -5367,11 +5030,8 @@
       <c r="L101" s="6">
         <v>5819</v>
       </c>
-      <c r="M101" s="7">
-        <v>26.91</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
@@ -5408,11 +5068,8 @@
       <c r="L102" s="6">
         <v>5831</v>
       </c>
-      <c r="M102" s="7">
-        <v>26.98</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>101</v>
       </c>
@@ -5449,11 +5106,8 @@
       <c r="L103" s="6">
         <v>5844</v>
       </c>
-      <c r="M103" s="7">
-        <v>27.04</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>102</v>
       </c>
@@ -5490,11 +5144,8 @@
       <c r="L104" s="6">
         <v>5829</v>
       </c>
-      <c r="M104" s="7">
-        <v>27.11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>103</v>
       </c>
@@ -5531,11 +5182,8 @@
       <c r="L105" s="6">
         <v>5832</v>
       </c>
-      <c r="M105" s="7">
-        <v>27.22</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
@@ -5572,11 +5220,8 @@
       <c r="L106" s="6">
         <v>5837</v>
       </c>
-      <c r="M106" s="7">
-        <v>27.31</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>105</v>
       </c>
@@ -5613,11 +5258,8 @@
       <c r="L107" s="6">
         <v>5845</v>
       </c>
-      <c r="M107" s="7">
-        <v>27.36</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>106</v>
       </c>
@@ -5654,11 +5296,8 @@
       <c r="L108" s="6">
         <v>5842</v>
       </c>
-      <c r="M108" s="7">
-        <v>27.44</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>107</v>
       </c>
@@ -5695,11 +5334,8 @@
       <c r="L109" s="6">
         <v>5850</v>
       </c>
-      <c r="M109" s="7">
-        <v>27.54</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>108</v>
       </c>
@@ -5736,11 +5372,8 @@
       <c r="L110" s="6">
         <v>5853</v>
       </c>
-      <c r="M110" s="7">
-        <v>27.58</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
@@ -5777,11 +5410,8 @@
       <c r="L111" s="6">
         <v>5854</v>
       </c>
-      <c r="M111" s="7">
-        <v>27.69</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>110</v>
       </c>
@@ -5818,11 +5448,8 @@
       <c r="L112" s="6">
         <v>5869</v>
       </c>
-      <c r="M112" s="7">
-        <v>27.76</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>111</v>
       </c>
@@ -5859,11 +5486,8 @@
       <c r="L113" s="6">
         <v>5884</v>
       </c>
-      <c r="M113" s="7">
-        <v>27.81</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>112</v>
       </c>
@@ -5900,11 +5524,8 @@
       <c r="L114" s="6">
         <v>5881</v>
       </c>
-      <c r="M114" s="7">
-        <v>27.87</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>113</v>
       </c>
@@ -5941,11 +5562,8 @@
       <c r="L115" s="6">
         <v>5896</v>
       </c>
-      <c r="M115" s="7">
-        <v>27.96</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>114</v>
       </c>
@@ -5982,11 +5600,8 @@
       <c r="L116" s="6">
         <v>5905</v>
       </c>
-      <c r="M116" s="7">
-        <v>28.05</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>115</v>
       </c>
@@ -6023,11 +5638,8 @@
       <c r="L117" s="6">
         <v>5910</v>
       </c>
-      <c r="M117" s="7">
-        <v>28.16</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>116</v>
       </c>
@@ -6064,11 +5676,8 @@
       <c r="L118" s="6">
         <v>5907</v>
       </c>
-      <c r="M118" s="7">
-        <v>28.16</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>117</v>
       </c>
@@ -6105,11 +5714,8 @@
       <c r="L119" s="6">
         <v>5907</v>
       </c>
-      <c r="M119" s="7">
-        <v>28.24</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>118</v>
       </c>
@@ -6146,11 +5752,8 @@
       <c r="L120" s="6">
         <v>5923</v>
       </c>
-      <c r="M120" s="7">
-        <v>28.34</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>119</v>
       </c>
@@ -6187,11 +5790,8 @@
       <c r="L121" s="6">
         <v>5925</v>
       </c>
-      <c r="M121" s="7">
-        <v>28.37</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>120</v>
       </c>
@@ -6228,11 +5828,8 @@
       <c r="L122" s="6">
         <v>5935</v>
       </c>
-      <c r="M122" s="7">
-        <v>28.43</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>121</v>
       </c>
@@ -6269,11 +5866,8 @@
       <c r="L123" s="6">
         <v>5941</v>
       </c>
-      <c r="M123" s="7">
-        <v>28.52</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>122</v>
       </c>
@@ -6310,11 +5904,8 @@
       <c r="L124" s="6">
         <v>5850</v>
       </c>
-      <c r="M124" s="7">
-        <v>28.69</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>123</v>
       </c>
@@ -6351,11 +5942,8 @@
       <c r="L125" s="6">
         <v>4571</v>
       </c>
-      <c r="M125" s="7">
-        <v>30.03</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>124</v>
       </c>
@@ -6392,11 +5980,8 @@
       <c r="L126" s="6">
         <v>4832</v>
       </c>
-      <c r="M126" s="7">
-        <v>29.72</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>125</v>
       </c>
@@ -6432,9 +6017,6 @@
       </c>
       <c r="L127" s="6">
         <v>5189</v>
-      </c>
-      <c r="M127" s="7">
-        <v>29.37</v>
       </c>
     </row>
   </sheetData>
